--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAAED2A4-8EF8-438A-A6D1-78B2CD4C48DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C3F885-4587-49B4-8369-66B21843F65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -903,9 +903,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>Cost Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -952,6 +949,10 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1448.HK</t>
   </si>
   <si>
@@ -965,6 +966,15 @@
   </si>
   <si>
     <t>CNY</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
   <si>
     <t>HKD</t>
@@ -2680,16 +2690,16 @@
                   <c:v>9.3695566779006881E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.6534604450711924E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.8127543493622026E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42116100443843402</c:v>
+                  <c:v>0.37462639998772207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3584,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3692,10 +3702,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +3731,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3730,7 +3740,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3739,7 +3749,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3748,7 +3758,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3757,7 +3767,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3820,10 +3830,18 @@
       <c r="D25" s="149">
         <v>2171626</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
+      <c r="E25" s="149">
+        <v>2325848</v>
+      </c>
+      <c r="F25" s="149">
+        <v>1892537</v>
+      </c>
+      <c r="G25" s="149">
+        <v>1850574</v>
+      </c>
+      <c r="H25" s="149">
+        <v>1651299</v>
+      </c>
       <c r="I25" s="149"/>
       <c r="J25" s="149"/>
       <c r="K25" s="149"/>
@@ -3842,10 +3860,22 @@
         <f>463624+123266+162065+55417</f>
         <v>804372</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
+      <c r="E26" s="150">
+        <f>469616+167358+177538+53122</f>
+        <v>867634</v>
+      </c>
+      <c r="F26" s="150">
+        <f>385805+76495+149109+52906</f>
+        <v>664315</v>
+      </c>
+      <c r="G26" s="150">
+        <f>416125+72897+141477+54418</f>
+        <v>684917</v>
+      </c>
+      <c r="H26" s="150">
+        <f>401192+70137+117113+55002</f>
+        <v>643444</v>
+      </c>
       <c r="I26" s="150"/>
       <c r="J26" s="150"/>
       <c r="K26" s="150"/>
@@ -3864,10 +3894,22 @@
         <f>43155+155953+153616</f>
         <v>352724</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
+      <c r="E27" s="150">
+        <f>43986+146734+197643</f>
+        <v>388363</v>
+      </c>
+      <c r="F27" s="150">
+        <f>36072+136713+133406</f>
+        <v>306191</v>
+      </c>
+      <c r="G27" s="150">
+        <f>38671+123170+139039</f>
+        <v>300880</v>
+      </c>
+      <c r="H27" s="150">
+        <f>43876+92730+137717</f>
+        <v>274323</v>
+      </c>
       <c r="I27" s="150"/>
       <c r="J27" s="150"/>
       <c r="K27" s="150"/>
@@ -3892,7 +3934,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="150">
         <v>7392</v>
@@ -3900,10 +3942,18 @@
       <c r="D29" s="150">
         <v>5008</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
+      <c r="E29" s="150">
+        <v>7246</v>
+      </c>
+      <c r="F29" s="150">
+        <v>9525</v>
+      </c>
+      <c r="G29" s="150">
+        <v>11128</v>
+      </c>
+      <c r="H29" s="150">
+        <v>8293</v>
+      </c>
       <c r="I29" s="150"/>
       <c r="J29" s="150"/>
       <c r="K29" s="150"/>
@@ -3920,10 +3970,18 @@
       <c r="D30" s="150">
         <v>152133</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
+      <c r="E30" s="150">
+        <v>169611</v>
+      </c>
+      <c r="F30" s="150">
+        <v>137241</v>
+      </c>
+      <c r="G30" s="150">
+        <v>156740</v>
+      </c>
+      <c r="H30" s="150">
+        <v>127269</v>
+      </c>
       <c r="I30" s="150"/>
       <c r="J30" s="150"/>
       <c r="K30" s="150"/>
@@ -3934,12 +3992,30 @@
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
+      <c r="C31" s="150">
+        <f>1558687-1462673</f>
+        <v>96014</v>
+      </c>
+      <c r="D31" s="150">
+        <f>1208319-1166568</f>
+        <v>41751</v>
+      </c>
+      <c r="E31" s="150">
+        <f>1306350-1263647</f>
+        <v>42703</v>
+      </c>
+      <c r="F31" s="150">
+        <f>1076532-1031253</f>
+        <v>45279</v>
+      </c>
+      <c r="G31" s="150">
+        <f>1025232-938998</f>
+        <v>86234</v>
+      </c>
+      <c r="H31" s="150">
+        <f>862237-818965</f>
+        <v>43272</v>
+      </c>
       <c r="I31" s="150"/>
       <c r="J31" s="150"/>
       <c r="K31" s="150"/>
@@ -3950,12 +4026,24 @@
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
+      <c r="C32" s="150">
+        <v>166609</v>
+      </c>
+      <c r="D32" s="150">
+        <v>155953</v>
+      </c>
+      <c r="E32" s="150">
+        <v>146734</v>
+      </c>
+      <c r="F32" s="150">
+        <v>136713</v>
+      </c>
+      <c r="G32" s="150">
+        <v>123170</v>
+      </c>
+      <c r="H32" s="150">
+        <v>92730</v>
+      </c>
       <c r="I32" s="150"/>
       <c r="J32" s="150"/>
       <c r="K32" s="150"/>
@@ -3966,12 +4054,30 @@
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
+      <c r="C33" s="150">
+        <f>30952+11624+2054</f>
+        <v>44630</v>
+      </c>
+      <c r="D33" s="150">
+        <f>69532+10802+4734</f>
+        <v>85068</v>
+      </c>
+      <c r="E33" s="150">
+        <f>123181+5449+43950+3022</f>
+        <v>175602</v>
+      </c>
+      <c r="F33" s="150">
+        <f>100209+6209+11785</f>
+        <v>118203</v>
+      </c>
+      <c r="G33" s="150">
+        <f>86119+5245+98127+229</f>
+        <v>189720</v>
+      </c>
+      <c r="H33" s="150">
+        <f>96084+7343+8926+7165+7582</f>
+        <v>127100</v>
+      </c>
       <c r="I33" s="150"/>
       <c r="J33" s="150"/>
       <c r="K33" s="150"/>
@@ -4162,15 +4268,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10117237415796593</v>
+        <v>0.1016112958960254</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.5848265515098093E-2</v>
+        <v>3.6003788039277833E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4294,7 +4400,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59">
         <v>14672</v>
@@ -4414,7 +4520,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59">
         <v>21963</v>
@@ -4635,7 +4741,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4736,7 +4842,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4758,19 +4864,19 @@
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
-        <v>0</v>
+        <v>121979</v>
       </c>
       <c r="D95" s="159">
         <f>C95/C91</f>
-        <v>0</v>
+        <v>4.6414632410829562E-2</v>
       </c>
       <c r="E95" s="252">
-        <f>E91*D95</f>
-        <v>0</v>
+        <f>E91*2%</f>
+        <v>52560.58</v>
       </c>
       <c r="F95" s="252">
-        <f>F91*D95</f>
-        <v>0</v>
+        <f>F91*1%</f>
+        <v>26280.29</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
@@ -4779,16 +4885,16 @@
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
-        <v>0</v>
+        <v>96014</v>
       </c>
       <c r="D96" s="159">
         <f>C96/C91</f>
-        <v>0</v>
+        <v>3.6534604450711924E-2</v>
       </c>
       <c r="E96" s="253"/>
       <c r="F96" s="252">
         <f>F91*D96</f>
-        <v>0</v>
+        <v>96014.000000000015</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
@@ -4951,10 +5057,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4992,7 +5098,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>9163.4605168999988</v>
+        <v>9117.063248460001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5041,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5062,7 +5168,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5073,7 +5179,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5084,7 +5190,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="174">
         <v>7.0000000000000007E-2</v>
@@ -5100,7 +5206,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5134,7 +5240,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="175">
         <v>8.0500000000000002E-2</v>
@@ -5201,14 +5307,14 @@
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>3.6534604450711924E-2</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2619676995619167</v>
+        <v>1.2565164842104914</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5220,11 +5326,11 @@
         <v>2.8127543493622026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.305905488505728</v>
+        <v>11.536016818995959</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5233,14 +5339,14 @@
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.44490359109692307</v>
+        <v>0.50016774928512098</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5249,14 +5355,14 @@
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
-        <v>0.42116100443843402</v>
+        <v>0.37462639998772207</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3169772087773194E-2</v>
+        <v>4.3357057911142444E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5276,7 +5382,7 @@
         <v>237</v>
       </c>
       <c r="G28" s="273" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="273"/>
     </row>
@@ -5286,20 +5392,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5526971208253002</v>
+        <v>2.6555266411468295</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.3357095130863925</v>
+        <v>4.9297889045158403</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3561142597944711</v>
+        <v>3.1241489895845049</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.2484430548577334</v>
+        <v>4.2867729604485572</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5334,8 +5440,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -5353,7 +5459,7 @@
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
-        <v>unclear</v>
+        <v>Strongly agree</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5363,7 +5469,7 @@
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5380,7 +5486,7 @@
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5390,7 +5496,7 @@
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6361,12 +6467,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6422,9 +6528,9 @@
       <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="85" t="str">
+      <c r="F3" s="85">
         <f>H14</f>
-        <v/>
+        <v>563840</v>
       </c>
       <c r="G3" s="85">
         <f>C14</f>
@@ -6455,9 +6561,9 @@
       <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="93" t="e">
+      <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
-        <v>#VALUE!</v>
+        <v>0.12021712633943271</v>
       </c>
       <c r="J4" s="87"/>
     </row>
@@ -6524,21 +6630,21 @@
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2171626</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
-        <v/>
-      </c>
-      <c r="F6" s="200" t="str">
+        <v>2325848</v>
+      </c>
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
-        <v/>
-      </c>
-      <c r="G6" s="200" t="str">
+        <v>1892537</v>
+      </c>
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
-        <v/>
-      </c>
-      <c r="H6" s="200" t="str">
+        <v>1850574</v>
+      </c>
+      <c r="H6" s="200">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
-        <v/>
+        <v>1651299</v>
       </c>
       <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
@@ -6571,21 +6677,21 @@
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.21016648354735112</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="92">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E7" s="92" t="str">
+        <v>-6.6307858467105296E-2</v>
+      </c>
+      <c r="E7" s="92">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F7" s="92" t="str">
+        <v>0.22895774296618776</v>
+      </c>
+      <c r="F7" s="92">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G7" s="92" t="str">
+        <v>2.2675667117337595E-2</v>
+      </c>
+      <c r="G7" s="92">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.12067772099419916</v>
       </c>
       <c r="H7" s="92" t="str">
         <f t="shared" si="1"/>
@@ -6626,21 +6732,21 @@
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>804372</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
-        <v/>
-      </c>
-      <c r="F8" s="199" t="str">
+        <v>867634</v>
+      </c>
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
-        <v/>
-      </c>
-      <c r="G8" s="199" t="str">
+        <v>664315</v>
+      </c>
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
-        <v/>
-      </c>
-      <c r="H8" s="199" t="str">
+        <v>684917</v>
+      </c>
+      <c r="H8" s="199">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
-        <v/>
+        <v>643444</v>
       </c>
       <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
@@ -6677,21 +6783,21 @@
         <f t="shared" si="2"/>
         <v>1367254</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F9" s="151" t="str">
+        <v>1458214</v>
+      </c>
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G9" s="151" t="str">
+        <v>1228222</v>
+      </c>
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H9" s="151" t="str">
+        <v>1165657</v>
+      </c>
+      <c r="H9" s="151">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1007855</v>
       </c>
       <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
@@ -6728,21 +6834,21 @@
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>352724</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
-        <v/>
-      </c>
-      <c r="F10" s="199" t="str">
+        <v>388363</v>
+      </c>
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
-        <v/>
-      </c>
-      <c r="G10" s="199" t="str">
+        <v>306191</v>
+      </c>
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
-        <v/>
-      </c>
-      <c r="H10" s="199" t="str">
+        <v>300880</v>
+      </c>
+      <c r="H10" s="199">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
-        <v/>
+        <v>274323</v>
       </c>
       <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
@@ -6830,21 +6936,21 @@
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>202844</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F12" s="199" t="str">
+        <v>226148</v>
+      </c>
+      <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="G12" s="199" t="str">
+        <v>182988</v>
+      </c>
+      <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="H12" s="199" t="str">
+        <v>208986.66666666666</v>
+      </c>
+      <c r="H12" s="199">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
+        <v>169692</v>
       </c>
       <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6881,21 +6987,21 @@
         <f t="shared" si="3"/>
         <v>0.37376877970700295</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F13" s="229" t="str">
+        <v>0.3627507042592637</v>
+      </c>
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G13" s="229" t="str">
+        <v>0.39050385804874621</v>
+      </c>
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H13" s="229" t="str">
+        <v>0.35437131037901398</v>
+      </c>
+      <c r="H13" s="229">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.34145239596220917</v>
       </c>
       <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
@@ -6932,21 +7038,21 @@
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>811686</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F14" s="230" t="str">
+        <v>843703</v>
+      </c>
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G14" s="230" t="str">
+        <v>739043</v>
+      </c>
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H14" s="230" t="str">
+        <v>655790.33333333337</v>
+      </c>
+      <c r="H14" s="230">
         <f t="shared" si="4"/>
-        <v/>
+        <v>563840</v>
       </c>
       <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
@@ -6979,21 +7085,21 @@
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.37271720016525262</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E15" s="232" t="str">
+        <v>-3.7948187928690549E-2</v>
+      </c>
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F15" s="232" t="str">
+        <v>0.14161557581899836</v>
+      </c>
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G15" s="232" t="str">
+        <v>0.12695012786098803</v>
+      </c>
+      <c r="G15" s="232">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0.16307876939084381</v>
       </c>
       <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
@@ -7026,29 +7132,29 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
-        <v/>
-      </c>
-      <c r="D16" s="199" t="str">
+        <v>96014</v>
+      </c>
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
-        <v/>
-      </c>
-      <c r="E16" s="199" t="str">
+        <v>41751</v>
+      </c>
+      <c r="E16" s="199">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
-        <v/>
-      </c>
-      <c r="F16" s="199" t="str">
+        <v>42703</v>
+      </c>
+      <c r="F16" s="199">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
-        <v/>
-      </c>
-      <c r="G16" s="199" t="str">
+        <v>45279</v>
+      </c>
+      <c r="G16" s="199">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
-        <v/>
-      </c>
-      <c r="H16" s="199" t="str">
+        <v>86234</v>
+      </c>
+      <c r="H16" s="199">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
-        <v/>
+        <v>43272</v>
       </c>
       <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
@@ -7075,7 +7181,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7085,21 +7191,21 @@
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5008</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
-        <v/>
-      </c>
-      <c r="F17" s="199" t="str">
+        <v>7246</v>
+      </c>
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
-        <v/>
-      </c>
-      <c r="G17" s="199" t="str">
+        <v>9525</v>
+      </c>
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
-        <v/>
-      </c>
-      <c r="H17" s="199" t="str">
+        <v>11128</v>
+      </c>
+      <c r="H17" s="199">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
-        <v/>
+        <v>8293</v>
       </c>
       <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
@@ -7128,29 +7234,29 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
-        <v/>
-      </c>
-      <c r="D18" s="152" t="str">
+        <v>6.3396941205747723E-2</v>
+      </c>
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E18" s="152" t="str">
+        <v>7.1813931128104011E-2</v>
+      </c>
+      <c r="E18" s="152">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F18" s="152" t="str">
+        <v>6.3088387547251587E-2</v>
+      </c>
+      <c r="F18" s="152">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G18" s="152" t="str">
+        <v>7.223795360407749E-2</v>
+      </c>
+      <c r="G18" s="152">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H18" s="152" t="str">
+        <v>6.6557727494280156E-2</v>
+      </c>
+      <c r="H18" s="152">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5.6155790077993144E-2</v>
       </c>
       <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
@@ -7179,29 +7285,29 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
-        <v/>
-      </c>
-      <c r="D19" s="199" t="str">
+        <v>166609</v>
+      </c>
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
-        <v/>
-      </c>
-      <c r="E19" s="199" t="str">
+        <v>155953</v>
+      </c>
+      <c r="E19" s="199">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
-        <v/>
-      </c>
-      <c r="F19" s="199" t="str">
+        <v>146734</v>
+      </c>
+      <c r="F19" s="199">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
-        <v/>
-      </c>
-      <c r="G19" s="199" t="str">
+        <v>136713</v>
+      </c>
+      <c r="G19" s="199">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
-        <v/>
-      </c>
-      <c r="H19" s="199" t="str">
+        <v>123170</v>
+      </c>
+      <c r="H19" s="199">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
-        <v/>
+        <v>92730</v>
       </c>
       <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
@@ -7232,27 +7338,27 @@
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
-        <v>0</v>
+        <v>1.6982308794918168E-2</v>
       </c>
       <c r="D20" s="152">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="152" t="str">
+        <v>3.9172491027460531E-2</v>
+      </c>
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F20" s="152" t="str">
+        <v>7.5500204656538172E-2</v>
+      </c>
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G20" s="152" t="str">
+        <v>6.2457431479543066E-2</v>
+      </c>
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H20" s="152" t="str">
+        <v>0.10251954258516546</v>
+      </c>
+      <c r="H20" s="152">
         <f t="shared" si="7"/>
-        <v/>
+        <v>7.6969706879250824E-2</v>
       </c>
       <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
@@ -7281,29 +7387,29 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
-        <v/>
-      </c>
-      <c r="D21" s="199" t="str">
+        <v>44630</v>
+      </c>
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
-        <v/>
-      </c>
-      <c r="E21" s="199" t="str">
+        <v>85068</v>
+      </c>
+      <c r="E21" s="199">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
-        <v/>
-      </c>
-      <c r="F21" s="199" t="str">
+        <v>175602</v>
+      </c>
+      <c r="F21" s="199">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
-        <v/>
-      </c>
-      <c r="G21" s="199" t="str">
+        <v>118203</v>
+      </c>
+      <c r="G21" s="199">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
-        <v/>
-      </c>
-      <c r="H21" s="199" t="str">
+        <v>189720</v>
+      </c>
+      <c r="H21" s="199">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
-        <v/>
+        <v>127100</v>
       </c>
       <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
@@ -7334,27 +7440,27 @@
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
-        <v>1106823.3333333333</v>
+        <v>888830.33333333326</v>
       </c>
       <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
-        <v>806678</v>
-      </c>
-      <c r="E22" s="161" t="str">
+        <v>694042</v>
+      </c>
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F22" s="161" t="str">
+        <v>764886</v>
+      </c>
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G22" s="161" t="str">
+        <v>665729</v>
+      </c>
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H22" s="161" t="str">
+        <v>491878.33333333337</v>
+      </c>
+      <c r="H22" s="161">
         <f t="shared" si="8"/>
-        <v/>
+        <v>477905</v>
       </c>
       <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
@@ -7385,27 +7491,27 @@
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
-        <v>0.31587075332882553</v>
+        <v>0.2536588256826694</v>
       </c>
       <c r="D23" s="153">
         <f t="shared" si="9"/>
-        <v>0.27859700519334363</v>
-      </c>
-      <c r="E23" s="153" t="str">
+        <v>0.2396966604746858</v>
+      </c>
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F23" s="153" t="str">
+        <v>0.2466474593352618</v>
+      </c>
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G23" s="153" t="str">
+        <v>0.26382403620114164</v>
+      </c>
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H23" s="153" t="str">
+        <v>0.19934828328940102</v>
+      </c>
+      <c r="H23" s="153">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0.21705866109045061</v>
       </c>
       <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
@@ -7436,27 +7542,27 @@
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
-        <v>830117.5</v>
+        <v>666622.75</v>
       </c>
       <c r="D24" s="77">
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
-        <v>605008.5</v>
-      </c>
-      <c r="E24" s="77" t="str">
+        <v>520531.5</v>
+      </c>
+      <c r="E24" s="77">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F24" s="77" t="str">
+        <v>573664.5</v>
+      </c>
+      <c r="F24" s="77">
         <f>IF(F6="","",F22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="G24" s="77" t="str">
+        <v>499296.75</v>
+      </c>
+      <c r="G24" s="77">
         <f>IF(G6="","",G22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="H24" s="77" t="str">
+        <v>368908.75</v>
+      </c>
+      <c r="H24" s="77">
         <f>IF(H6="","",H22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
+        <v>358428.75</v>
       </c>
       <c r="I24" s="77" t="str">
         <f>IF(I6="","",I22*(1-Fin_Analysis!$I$84))</f>
@@ -7487,23 +7593,23 @@
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
-        <v>0.37207576422480015</v>
-      </c>
-      <c r="D25" s="233" t="str">
+        <v>0.28065784683539807</v>
+      </c>
+      <c r="D25" s="233">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E25" s="233" t="str">
+        <v>-9.2620338194188412E-2</v>
+      </c>
+      <c r="E25" s="233">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F25" s="233" t="str">
+        <v>0.14894499113002438</v>
+      </c>
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G25" s="233" t="str">
+        <v>0.35344241631568785</v>
+      </c>
+      <c r="G25" s="233">
         <f t="shared" si="10"/>
-        <v/>
+        <v>2.9238725967155259E-2</v>
       </c>
       <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
@@ -8258,9 +8364,9 @@
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
@@ -8299,7 +8405,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8327,21 +8433,21 @@
         <f t="shared" si="34"/>
         <v>0.37040079645390134</v>
       </c>
-      <c r="E42" s="156" t="str">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
+        <v>0.37303985471105594</v>
+      </c>
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
+        <v>0.3510182363673735</v>
+      </c>
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
+        <v>0.37011057109848078</v>
+      </c>
+      <c r="H42" s="156">
         <f t="shared" si="34"/>
-        <v/>
+        <v>0.38965929247216891</v>
       </c>
       <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
@@ -8378,21 +8484,21 @@
         <f t="shared" si="35"/>
         <v>0.16242391645706949</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="F43" s="153" t="str">
+        <v>0.16697694776270849</v>
+      </c>
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="G43" s="153" t="str">
+        <v>0.16178864666846671</v>
+      </c>
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="H43" s="153" t="str">
+        <v>0.16258739180384033</v>
+      </c>
+      <c r="H43" s="153">
         <f t="shared" si="35"/>
-        <v/>
+        <v>0.16612557749989554</v>
       </c>
       <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
@@ -8423,27 +8529,27 @@
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <v>3.6534604450711924E-2</v>
       </c>
       <c r="D44" s="153">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="153" t="str">
+        <v>1.9225686190900274E-2</v>
+      </c>
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="F44" s="153" t="str">
+        <v>1.8360185188370005E-2</v>
+      </c>
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="G44" s="153" t="str">
+        <v>2.3925027621652838E-2</v>
+      </c>
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="H44" s="153" t="str">
+        <v>4.6598514839179629E-2</v>
+      </c>
+      <c r="H44" s="153">
         <f t="shared" si="36"/>
-        <v/>
+        <v>2.6204824202037305E-2</v>
       </c>
       <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
@@ -8480,21 +8586,21 @@
         <f t="shared" si="37"/>
         <v>2.3061061158781483E-3</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="F45" s="153" t="str">
+        <v>3.115422847924714E-3</v>
+      </c>
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="G45" s="153" t="str">
+        <v>5.0329267010367565E-3</v>
+      </c>
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="H45" s="153" t="str">
+        <v>6.0132693964143015E-3</v>
+      </c>
+      <c r="H45" s="153">
         <f t="shared" si="37"/>
-        <v/>
+        <v>5.022106838313352E-3</v>
       </c>
       <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
@@ -8531,21 +8637,21 @@
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>9.3406507382026188E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="F46" s="153" t="str">
+        <v>9.7232493266971878E-2</v>
+      </c>
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="G46" s="153" t="str">
+        <v>9.6689258915413537E-2</v>
+      </c>
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H46" s="153" t="str">
+        <v>0.11293072671866494</v>
+      </c>
+      <c r="H46" s="153">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0.10276273406572643</v>
       </c>
       <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
@@ -8576,27 +8682,27 @@
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
+        <v>4.6414632410829562E-2</v>
       </c>
       <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
+        <v>3.264144010064348E-2</v>
+      </c>
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
+        <v>1.2411817109286591E-2</v>
+      </c>
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
+        <v>9.7805221245344208E-3</v>
+      </c>
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
+        <v>3.5961815090885314E-2</v>
+      </c>
+      <c r="H47" s="153">
         <f t="shared" si="39"/>
-        <v/>
+        <v>2.0813916801257677E-2</v>
       </c>
       <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
@@ -8627,27 +8733,27 @@
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.42116100443843402</v>
+        <v>0.33821176757689253</v>
       </c>
       <c r="D48" s="153">
         <f t="shared" si="40"/>
-        <v>0.37146267359112478</v>
-      </c>
-      <c r="E48" s="153" t="str">
+        <v>0.31959554729958106</v>
+      </c>
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
+        <v>0.32886327911368241</v>
+      </c>
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
+        <v>0.35176538160152221</v>
+      </c>
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
+        <v>0.26579771105253469</v>
+      </c>
+      <c r="H48" s="153">
         <f t="shared" si="40"/>
-        <v/>
+        <v>0.28941154812060083</v>
       </c>
       <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
@@ -8792,118 +8898,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>0.21037109747306657</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>-0.27072013072064943</v>
+      </c>
+      <c r="E52" s="153">
+        <f t="shared" si="43"/>
+        <v>9.8550463754670428E-2</v>
+      </c>
+      <c r="F52" s="153">
+        <f t="shared" si="43"/>
+        <v>1.0790219955675238</v>
+      </c>
+      <c r="G52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.43273867770668673</v>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.23041010677016285</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>3.8918796641736373</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8911,107 +9018,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>6.6785726117085838E-3</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>3.1253593911711373</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>6.2081772404850508E-3</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.3165478525897892E-3</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>7.2157016434163928E-3</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>9.4733071333505912E-3</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.4307623672695646E-2</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>2.2623480738800581E-2</v>
+      </c>
+      <c r="H56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.7352821167386824E-2</v>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>3.6993214234084539</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9579,7 +9733,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10262,6 +10418,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10395,11 +10552,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>959526.93540446181</v>
+        <v>962948.78081875469</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85845983913929746</v>
+        <v>0.85795508150039357</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10420,7 +10577,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.44302531324205613</v>
+        <v>0.44427314461712841</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11486,11 +11643,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2619676995619167</v>
+        <v>1.2565164842104914</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>895138.92865325871</v>
+        <v>891272.27258018579</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11976,27 +12133,27 @@
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
-        <v>0</v>
+        <v>96014</v>
       </c>
       <c r="D80" s="159">
         <f>C80/$C$74</f>
-        <v>0</v>
+        <v>3.6534604450711924E-2</v>
       </c>
       <c r="E80" s="180">
         <f>E74*F80</f>
-        <v>0</v>
+        <v>96014.000000000015</v>
       </c>
       <c r="F80" s="160">
         <f>I80</f>
-        <v>0</v>
+        <v>3.6534604450711924E-2</v>
       </c>
       <c r="H80" s="238">
         <f>Inputs!F96</f>
-        <v>0</v>
+        <v>96014.000000000015</v>
       </c>
       <c r="I80" s="160">
         <f>H80/$H$74</f>
-        <v>0</v>
+        <v>3.6534604450711924E-2</v>
       </c>
       <c r="K80" s="181" t="s">
         <v>131</v>
@@ -12004,7 +12161,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12038,27 +12195,27 @@
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
-        <v>0</v>
+        <v>121979</v>
       </c>
       <c r="D82" s="159">
         <f>C82/$C$74</f>
-        <v>0</v>
+        <v>4.6414632410829562E-2</v>
       </c>
       <c r="E82" s="238">
         <f>Inputs!E95</f>
-        <v>0</v>
+        <v>52560.58</v>
       </c>
       <c r="F82" s="160">
         <f>E82/E74</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H82" s="238">
         <f>Inputs!F95</f>
-        <v>0</v>
+        <v>26280.29</v>
       </c>
       <c r="I82" s="160">
         <f>H82/$H$74</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K82" s="24"/>
     </row>
@@ -12068,27 +12225,27 @@
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
-        <v>1106823.3333333333</v>
+        <v>888830.33333333326</v>
       </c>
       <c r="D83" s="164">
         <f>C83/$C$74</f>
-        <v>0.42116100443843402</v>
+        <v>0.33821176757689253</v>
       </c>
       <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
-        <v>1106823.3333333333</v>
+        <v>958248.75333333318</v>
       </c>
       <c r="F83" s="164">
         <f>E83/E74</f>
-        <v>0.42116100443843402</v>
+        <v>0.36462639998772206</v>
       </c>
       <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
-        <v>1106823.3333333333</v>
+        <v>984529.04333333322</v>
       </c>
       <c r="I83" s="164">
         <f>H83/$H$74</f>
-        <v>0.42116100443843402</v>
+        <v>0.37462639998772207</v>
       </c>
       <c r="K83" s="24"/>
     </row>
@@ -12119,28 +12276,28 @@
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
-        <v>830117.5</v>
+        <v>666622.75</v>
       </c>
       <c r="D85" s="258">
         <f>C85/$C$74</f>
-        <v>0.31587075332882553</v>
+        <v>0.2536588256826694</v>
       </c>
       <c r="E85" s="264">
         <f>E83*(1-F84)</f>
-        <v>830117.5</v>
+        <v>718686.56499999994</v>
       </c>
       <c r="F85" s="258">
         <f>E85/E74</f>
-        <v>0.31587075332882553</v>
+        <v>0.27346979999079157</v>
       </c>
       <c r="G85" s="260"/>
       <c r="H85" s="264">
         <f>H83*(1-I84)</f>
-        <v>830117.5</v>
+        <v>738396.78249999997</v>
       </c>
       <c r="I85" s="258">
         <f>H85/$H$74</f>
-        <v>0.31587075332882553</v>
+        <v>0.28096979999079158</v>
       </c>
       <c r="K85" s="24"/>
     </row>
@@ -12150,17 +12307,17 @@
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
-        <v>0.3578303326513676</v>
+        <v>0.28735430873999096</v>
       </c>
       <c r="D86" s="209"/>
       <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>0.3578303326513676</v>
+        <v>0.30979692950217136</v>
       </c>
       <c r="F86" s="209"/>
       <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>0.3578303326513676</v>
+        <v>0.31829321308209324</v>
       </c>
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
@@ -12171,17 +12328,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.703174564479651E-2</v>
+        <v>7.8259028926231738E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.703174564479651E-2</v>
+        <v>8.4371126966832646E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.703174564479651E-2</v>
+        <v>8.6685033117612539E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12196,7 +12353,7 @@
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>1.0426729261197361</v>
+        <v>1.2983970960310012</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
@@ -12204,7 +12361,7 @@
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.44490359109692307</v>
+        <v>0.51388501576121715</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
@@ -12212,7 +12369,7 @@
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.44490359109692307</v>
+        <v>0.50016774928512098</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12222,17 +12379,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10117237415796593</v>
+        <v>0.1016112958960254</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3169772087773194E-2</v>
+        <v>4.3357057911142444E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3169772087773194E-2</v>
+        <v>4.3357057911142444E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12292,14 +12449,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.065875208001716</v>
+        <v>8.2171412496896572</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>10.065875208001716</v>
+        <v>8.5329602603878563</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12320,14 +12477,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4817408820199023</v>
+        <v>3.4822646278199398</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4817408820199023</v>
+        <v>3.4822646278199398</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12370,21 +12527,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11609800.51210314</v>
+        <v>9841763.8162308689</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.0045189738342879</v>
+        <v>4.0853714600056135</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.0045189738342879</v>
+        <v>4.2423893246896798</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8348295092045861</v>
+        <v>5.7939649939438258</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12394,14 +12551,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>958791.62669959699</v>
+        <v>953936.98555175099</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.413296583586375</v>
+        <v>0.41120394265682381</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12412,17 +12569,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1918318.5621040589</v>
+        <v>1916885.7663705058</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70287360985359337</v>
+        <v>0.70234863223552735</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82691012923952167</v>
+        <v>0.82629250851238512</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12433,27 +12590,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12569327.447507603</v>
+        <v>10804712.597049624</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.5526971208253002</v>
+        <v>3.8394474670550616</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>5.2940960001015069</v>
+        <v>4.376516149584317</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.3561142597944711</v>
+        <v>4.5169970200647782</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.4181325194874352</v>
+        <v>4.6574778905452403</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>7.2484430548577334</v>
+        <v>6.2090535597993863</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12494,27 +12651,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4015777.6884569349</v>
+        <v>4016381.7674994259</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4713844801456568</v>
+        <v>1.4716058152385973</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7310405648772433</v>
+        <v>1.7313009591042321</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.7310405648772433</v>
+        <v>1.7313009591042321</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7310405648772433</v>
+        <v>1.7313009591042321</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.3641367324836771</v>
+        <v>2.3644923610977271</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12555,27 +12712,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>8148678.6758244643</v>
+        <v>7084650.7493561814</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0120408004854786</v>
+        <v>2.6555266411468295</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5125682824893749</v>
+        <v>3.0539085543442743</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.543577412335857</v>
+        <v>3.1241489895845049</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5745865421823391</v>
+        <v>3.1943894248247364</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.806289893670705</v>
+        <v>4.2867729604485572</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12588,7 +12745,7 @@
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
-        <v>Profit</v>
+        <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C3F885-4587-49B4-8369-66B21843F65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D651B1-0A74-443A-80FC-2D51B4185235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4272,11 +4272,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1016112958960254</v>
+        <v>0.10209287922197391</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6003788039277833E-2</v>
+        <v>3.6174426784092606E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5057,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>9117.063248460001</v>
+        <v>9070.6659800199996</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5147,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2565164842104914</v>
+        <v>1.2505893579291418</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.536016818995959</v>
+        <v>11.481600160456914</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3357057911142444E-2</v>
+        <v>4.3562547231675817E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5392,20 +5392,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6555266411468295</v>
+        <v>2.6593889741598558</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.9297889045158403</v>
+        <v>4.9367005024414583</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1241489895845049</v>
+        <v>3.1286929107763011</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.2867729604485572</v>
+        <v>4.2927830456012686</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10458,8 +10458,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10552,11 +10552,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>962948.78081875469</v>
+        <v>967087.05968308868</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85795508150039357</v>
+        <v>0.85734464250745646</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10577,7 +10577,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.44427314461712841</v>
+        <v>0.44601566794033848</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11643,11 +11643,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2565164842104914</v>
+        <v>1.2505893579291418</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>891272.27258018579</v>
+        <v>887068.04336629889</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12328,17 +12328,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8259028926231738E-2</v>
+        <v>7.8629934966780224E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4371126966832646E-2</v>
+        <v>8.4771001090869866E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6685033117612539E-2</v>
+        <v>8.709587392217677E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12379,17 +12379,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1016112958960254</v>
+        <v>0.10209287922197391</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3357057911142444E-2</v>
+        <v>4.3562547231675817E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3357057911142444E-2</v>
+        <v>4.3562547231675817E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12449,14 +12449,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.2171412496896572</v>
+        <v>8.2292267404794508</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5329602603878563</v>
+        <v>8.545907758336897</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12477,14 +12477,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4822646278199398</v>
+        <v>3.4843924969842344</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4822646278199398</v>
+        <v>3.4843924969842344</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12527,21 +12527,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9841763.8162308689</v>
+        <v>9856697.2288962416</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0853714600056135</v>
+        <v>4.0913800848609609</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2423893246896798</v>
+        <v>4.2488265194502652</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7939649939438258</v>
+        <v>5.802756473991395</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12550,15 +12550,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>953936.98555175099</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-949082.34440390498</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.41120394265682381</v>
+        <v>-0.40911130172727256</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12569,17 +12569,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1916885.7663705058</v>
+        <v>1916169.4040869935</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70234863223552735</v>
+        <v>0.70208615646423356</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82629250851238512</v>
+        <v>0.82598371348733368</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12589,28 +12589,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>10804712.597049624</v>
+        <f>C97+C98+$C$99</f>
+        <v>10823784.28857933</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8394474670550616</v>
+        <v>3.8462728950935055</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>4.376516149584317</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>4.3843549395979213</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.5169970200647782</v>
+        <v>4.5250269354041244</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6574778905452403</v>
+        <v>4.6656989312103265</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>6.2090535597993863</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>6.2196288857514563</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12651,27 +12651,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4016381.7674994259</v>
+        <v>4018836.0137525168</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4716058152385973</v>
+        <v>1.4725050532262063</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7313009591042321</v>
+        <v>1.732358886148478</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.7313009591042321</v>
+        <v>1.732358886148478</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7313009591042321</v>
+        <v>1.732358886148478</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.3644923610977271</v>
+        <v>2.3659372054510808</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12712,27 +12712,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7084650.7493561814</v>
+        <v>7094970.3335953774</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6555266411468295</v>
+        <v>2.6593889741598558</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.0539085543442743</v>
+        <v>3.0583569128731996</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1241489895845049</v>
+        <v>3.1286929107763011</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1943894248247364</v>
+        <v>3.1990289086794022</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.2867729604485572</v>
+        <v>4.2927830456012686</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D651B1-0A74-443A-80FC-2D51B4185235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F39C03-A778-48E3-99E3-0CB4853341BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4272,11 +4272,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10209287922197391</v>
+        <v>0.10291604667185099</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6174426784092606E-2</v>
+        <v>3.6466098552716972E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5057,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>9070.6659800199996</v>
+        <v>9001.0700773600001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5147,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2505893579291418</v>
+        <v>1.2405865985354356</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.481600160456914</v>
+        <v>11.389765312245856</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3562547231675817E-2</v>
+        <v>4.3913788877401987E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5392,20 +5392,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6593889741598558</v>
+        <v>2.6685581961480893</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.9367005024414583</v>
+        <v>4.9532901473235462</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1286929107763011</v>
+        <v>3.1394802307624579</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.2927830456012686</v>
+        <v>4.3072088237596056</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10552,11 +10552,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>967087.05968308868</v>
+        <v>974998.34702308744</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85734464250745646</v>
+        <v>0.85617764568704247</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10577,7 +10577,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.44601566794033848</v>
+        <v>0.44981199651282228</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11643,11 +11643,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2505893579291418</v>
+        <v>1.2405865985354356</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>887068.04336629889</v>
+        <v>879972.88607315521</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12328,17 +12328,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8629934966780224E-2</v>
+        <v>7.9263922405902937E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4771001090869866E-2</v>
+        <v>8.545450349890539E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.709587392217677E-2</v>
+        <v>8.77981216105337E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12379,17 +12379,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10209287922197391</v>
+        <v>0.10291604667185099</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3562547231675817E-2</v>
+        <v>4.3913788877401987E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3562547231675817E-2</v>
+        <v>4.3913788877401987E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12449,14 +12449,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.2292267404794508</v>
+        <v>8.2578964056683901</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.545907758336897</v>
+        <v>8.5763618878997043</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12477,14 +12477,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4843924969842344</v>
+        <v>3.491406621876644</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4843924969842344</v>
+        <v>3.491406621876644</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12527,21 +12527,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9856697.2288962416</v>
+        <v>9891822.4774899147</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0913800848609609</v>
+        <v>4.1056339754016928</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2488265194502652</v>
+        <v>4.2639676041626533</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.802756473991395</v>
+        <v>5.8234351312478996</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12551,14 +12551,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-949082.34440390498</v>
+        <v>-941800.38268213568</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40911130172727256</v>
+        <v>-0.40597234033294555</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12569,17 +12569,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1916169.4040869935</v>
+        <v>1916798.7297052231</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70208615646423356</v>
+        <v>0.70231674192474924</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82598371348733368</v>
+        <v>0.82625499049970497</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12590,27 +12590,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10823784.28857933</v>
+        <v>10866820.824513003</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8462728950935055</v>
+        <v>3.8616471683122371</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3843549395979213</v>
+        <v>4.4019783769934966</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.5250269354041244</v>
+        <v>4.5431143156614553</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6656989312103265</v>
+        <v>4.6842502543294131</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.2196288857514563</v>
+        <v>6.2437177814146594</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12651,27 +12651,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4018836.0137525168</v>
+        <v>4026925.980008319</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4725050532262063</v>
+        <v>1.4754692239839415</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.732358886148478</v>
+        <v>1.7358461458634606</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.732358886148478</v>
+        <v>1.7358461458634606</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.732358886148478</v>
+        <v>1.7358461458634606</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.3659372054510808</v>
+        <v>2.3706998661045509</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12712,27 +12712,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7094970.3335953774</v>
+        <v>7119457.3006152287</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6593889741598558</v>
+        <v>2.6685581961480893</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.0583569128731996</v>
+        <v>3.0689122614284785</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1286929107763011</v>
+        <v>3.1394802307624579</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1990289086794022</v>
+        <v>3.2100482000964368</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.2927830456012686</v>
+        <v>4.3072088237596056</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F39C03-A778-48E3-99E3-0CB4853341BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7723DE1A-1116-4C6E-9E73-EBDF2AD16AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4272,11 +4272,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10291604667185099</v>
+        <v>0.10264189195918955</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6466098552716972E-2</v>
+        <v>3.6368957697681212E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5057,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>9001.0700773600001</v>
+        <v>9024.2687115799999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5147,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5193,10 +5193,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5243,7 +5243,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2405865985354356</v>
+        <v>1.2439001838168564</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.389765312245856</v>
+        <v>11.42018717779079</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3913788877401987E-2</v>
+        <v>4.3796808362109294E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5392,20 +5392,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6685581961480893</v>
+        <v>2.4473734062821797</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.9532901473235462</v>
+        <v>4.4267594944132451</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1394802307624579</v>
+        <v>2.8792628309202115</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.3072088237596056</v>
+        <v>3.8493560820984745</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10552,11 +10552,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>974998.34702308744</v>
+        <v>972391.97146155057</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85617764568704247</v>
+        <v>0.85656211307678576</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10577,7 +10577,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.44981199651282228</v>
+        <v>0.44856764826514089</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11643,11 +11643,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2405865985354356</v>
+        <v>1.2439001838168564</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>879972.88607315521</v>
+        <v>882323.2783849726</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12328,17 +12328,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9263922405902937E-2</v>
+        <v>7.9052773818541269E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.545450349890539E-2</v>
+        <v>8.5226864023721607E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.77981216105337E-2</v>
+        <v>8.7564239047213915E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12379,17 +12379,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10291604667185099</v>
+        <v>0.10264189195918955</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3913788877401987E-2</v>
+        <v>4.3796808362109294E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3913788877401987E-2</v>
+        <v>4.3796808362109294E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12449,14 +12449,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.2578964056683901</v>
+        <v>7.5325653246193012</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5763618878997043</v>
+        <v>7.8228515812771917</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12477,14 +12477,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.491406621876644</v>
+        <v>3.1862951650945601</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.491406621876644</v>
+        <v>3.1862951650945601</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12527,21 +12527,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9891822.4774899147</v>
+        <v>9022737.1607211474</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.1056339754016928</v>
+        <v>3.7450162365153274</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2639676041626533</v>
+        <v>3.889339809902459</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.8234351312478996</v>
+        <v>5.1726863261167262</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12551,14 +12551,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-941800.38268213568</v>
+        <v>-944227.70325605897</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40597234033294555</v>
+        <v>-0.40701866079772125</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12569,17 +12569,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1916798.7297052231</v>
+        <v>1916619.6747176095</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70231674192474924</v>
+        <v>0.70225113601966527</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82625499049970497</v>
+        <v>0.8261778070819592</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12590,27 +12590,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10866820.824513003</v>
+        <v>9995129.1321826968</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8616471683122371</v>
+        <v>3.5482177588676862</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4019783769934966</v>
+        <v>4.0402487117372718</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.5431143156614553</v>
+        <v>4.174373833961984</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6842502543294131</v>
+        <v>4.3084989561866962</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.2437177814146594</v>
+        <v>5.5918454724009639</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12651,27 +12651,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4026925.980008319</v>
+        <v>3675015.8803896303</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4754692239839415</v>
+        <v>1.3465290536966732</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7358461458634606</v>
+        <v>1.584151827878439</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.7358461458634606</v>
+        <v>1.584151827878439</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7358461458634606</v>
+        <v>1.584151827878439</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.3706998661045509</v>
+        <v>2.1068666917959851</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12712,27 +12712,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7119457.3006152287</v>
+        <v>6523920.5412657745</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6685581961480893</v>
+        <v>2.4473734062821797</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.0689122614284785</v>
+        <v>2.8122002698078554</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1394802307624579</v>
+        <v>2.8792628309202115</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.2100482000964368</v>
+        <v>2.9463253920325676</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.3072088237596056</v>
+        <v>3.8493560820984745</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7723DE1A-1116-4C6E-9E73-EBDF2AD16AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{287EC6E5-C479-4E20-8690-FDEB5C57CDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4272,11 +4283,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10264189195918955</v>
+        <v>0.10307904660855768</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6368957697681212E-2</v>
+        <v>3.6523854091802005E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5057,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>272</v>
@@ -5098,7 +5109,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>9024.2687115799999</v>
+        <v>8977.8714431399985</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5147,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5314,7 +5325,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2439001838168564</v>
+        <v>1.2386248464268006</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5330,7 +5341,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.42018717779079</v>
+        <v>11.371754561408682</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5362,7 +5373,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3796808362109294E-2</v>
+        <v>4.3983340177117088E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5392,20 +5403,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4473734062821797</v>
+        <v>2.4492418944788112</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.4267594944132451</v>
+        <v>4.429928556177825</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8792628309202115</v>
+        <v>2.8814610523280133</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.8493560820984745</v>
+        <v>3.8521117879807178</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10552,11 +10563,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>972391.97146155057</v>
+        <v>975513.49412237445</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85656211307678576</v>
+        <v>0.85610165615448253</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10577,7 +10588,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.44856764826514089</v>
+        <v>0.44960069409931963</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11643,11 +11654,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2439001838168564</v>
+        <v>1.2386248464268006</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>882323.2783849726</v>
+        <v>878581.37606745819</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12328,17 +12339,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9052773818541269E-2</v>
+        <v>7.9389461763010996E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5226864023721607E-2</v>
+        <v>8.5589847588695742E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7564239047213915E-2</v>
+        <v>8.7937177556892718E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12379,17 +12390,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10264189195918955</v>
+        <v>0.10307904660855768</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3796808362109294E-2</v>
+        <v>4.3983340177117088E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3796808362109294E-2</v>
+        <v>4.3983340177117088E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12449,14 +12460,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5325653246193012</v>
+        <v>7.5383483279816579</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8228515812771917</v>
+        <v>7.8291875078906346</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12477,14 +12488,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1862951650945601</v>
+        <v>3.1862594108890829</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1862951650945601</v>
+        <v>3.1862594108890829</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12527,21 +12538,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9022737.1607211474</v>
+        <v>9030044.9052064884</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7450162365153274</v>
+        <v>3.747891411247243</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.889339809902459</v>
+        <v>3.8924898852112197</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1726863261167262</v>
+        <v>5.1768758164344355</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12551,14 +12562,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-944227.70325605897</v>
+        <v>-939373.06210821285</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40701866079772125</v>
+        <v>-0.40492601986817001</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12569,17 +12580,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1916619.6747176095</v>
+        <v>1914886.5562305874</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70225113601966527</v>
+        <v>0.70161611988035355</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.8261778070819592</v>
+        <v>0.82543072927100425</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12590,27 +12601,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>9995129.1321826968</v>
+        <v>10005558.399328863</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5482177588676862</v>
+        <v>3.5519698449962291</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0402487117372718</v>
+        <v>4.0445815112594268</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.174373833961984</v>
+        <v>4.1787880529367403</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3084989561866962</v>
+        <v>4.3129945946140547</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.5918454724009639</v>
+        <v>5.59738052583727</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12651,27 +12662,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3675015.8803896303</v>
+        <v>3674974.6421282291</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3465290536966732</v>
+        <v>1.3465139439613936</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.584151827878439</v>
+        <v>1.5841340517192866</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.584151827878439</v>
+        <v>1.5841340517192866</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.584151827878439</v>
+        <v>1.5841340517192866</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1068666917959851</v>
+        <v>2.1068430501241662</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12712,27 +12723,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6523920.5412657745</v>
+        <v>6528925.6736982269</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.4473734062821797</v>
+        <v>2.4492418944788112</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.8122002698078554</v>
+        <v>2.8143577814893566</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.8792628309202115</v>
+        <v>2.8814610523280133</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9463253920325676</v>
+        <v>2.9485643231666705</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.8493560820984745</v>
+        <v>3.8521117879807178</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{287EC6E5-C479-4E20-8690-FDEB5C57CDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D58E38-CD73-45B0-B50C-BDE85063886D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,13 +123,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +897,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1549,7 +1564,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2189,6 +2204,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3605,7 +3630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3619,28 +3644,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -3656,24 +3681,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>2319863422</v>
@@ -3681,10 +3706,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3705,7 +3730,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3713,15 +3738,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3730,61 +3755,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3861,7 +3886,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <f>506360+123086+188935+62160</f>
@@ -3895,7 +3920,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>48899+166609+171530</f>
@@ -3929,7 +3954,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3945,7 +3970,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C29" s="150">
         <v>7392</v>
@@ -3973,7 +3998,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>184676</v>
@@ -4001,7 +4026,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <f>1558687-1462673</f>
@@ -4035,7 +4060,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>166609</v>
@@ -4063,7 +4088,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <f>30952+11624+2054</f>
@@ -4113,7 +4138,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4129,7 +4154,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4161,7 +4186,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4209,7 +4234,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4225,7 +4250,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4241,7 +4266,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4257,7 +4282,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.0686+0.0906+0.2139</f>
@@ -4279,15 +4304,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10307904660855768</v>
+        <v>0.10308547489300153</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6523854091802005E-2</v>
+        <v>3.6526131816818019E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4328,21 +4353,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <f>267255+2247155</f>
@@ -4355,7 +4380,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4365,7 +4390,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>170507</v>
@@ -4378,7 +4403,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>890582</v>
@@ -4390,7 +4415,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4400,7 +4425,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4411,7 +4436,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59">
         <v>14672</v>
@@ -4423,7 +4448,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <f>566307+91401</f>
@@ -4437,7 +4462,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4445,24 +4470,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4473,7 +4498,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4484,7 +4509,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <f>204633+92615</f>
@@ -4498,7 +4523,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4509,7 +4534,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4520,7 +4545,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4531,7 +4556,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59">
         <v>21963</v>
@@ -4543,7 +4568,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <f>3000+44523</f>
@@ -4553,12 +4578,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <f>6509+2031204</f>
@@ -4568,12 +4593,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4581,12 +4606,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <f>538274+108026</f>
@@ -4600,7 +4625,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4611,7 +4636,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>306381</v>
@@ -4623,7 +4648,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>99594</v>
@@ -4636,7 +4661,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <f>1091455+12772</f>
@@ -4649,7 +4674,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>200000</v>
@@ -4657,7 +4682,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>22844</v>
@@ -4665,7 +4690,7 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59">
         <v>29863</v>
@@ -4673,7 +4698,7 @@
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4687,13 +4712,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>31686</v>
@@ -4701,19 +4726,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>881357</v>
@@ -4721,7 +4746,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>6069865</v>
@@ -4729,19 +4754,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4749,10 +4774,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4760,18 +4785,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4780,20 +4805,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4811,7 +4836,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4832,7 +4857,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4853,7 +4878,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4871,7 +4896,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4892,7 +4917,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4910,7 +4935,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4928,7 +4953,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5056,13 +5081,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1448.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -5071,47 +5096,47 @@
         <v>3.87</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>福壽園</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>2319863422</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
         <v>8977.8714431399985</v>
       </c>
-      <c r="H5" s="275"/>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5134,16 +5159,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5158,7 +5183,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5168,40 +5193,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5214,29 +5239,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5246,12 +5271,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5261,29 +5286,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.33505756595532243</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5291,7 +5316,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5302,58 +5327,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.3695566779006881E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>3.6534604450711924E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2386248464268006</v>
+        <v>1.2385476072925743</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.8127543493622026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.371754561408682</v>
+        <v>11.37104543266846</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0.01</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5362,18 +5387,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.37462639998772207</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3983340177117088E-2</v>
+        <v>4.3986083095593251E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5383,62 +5408,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4492418944788112</v>
+        <v>2.4494546425107306</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.429928556177825</v>
+        <v>4.4303102830657162</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8814610523280133</v>
-      </c>
-      <c r="G29" s="274">
+        <v>2.8817113441302711</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.8521117879807178</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>3.8524437244049707</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5448,25 +5473,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5476,7 +5501,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5486,14 +5511,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5503,7 +5528,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5518,14 +5543,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6478,12 +6503,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6510,16 +6535,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6537,7 +6562,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6570,7 +6595,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6581,7 +6606,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6733,7 +6758,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6784,7 +6809,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6835,7 +6860,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6886,7 +6911,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6937,7 +6962,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6988,7 +7013,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7039,7 +7064,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7090,7 +7115,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7141,7 +7166,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7192,7 +7217,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7243,7 +7268,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7294,7 +7319,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7345,7 +7370,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7396,7 +7421,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7447,7 +7472,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7498,7 +7523,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7549,7 +7574,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7600,7 +7625,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7651,7 +7676,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7804,7 +7829,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7855,7 +7880,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7957,7 +7982,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8161,7 +8186,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8212,7 +8237,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8263,7 +8288,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8314,7 +8339,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8365,7 +8390,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8416,7 +8441,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8434,7 +8459,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8485,7 +8510,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8536,7 +8561,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8587,7 +8612,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8638,7 +8663,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8689,7 +8714,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8740,7 +8765,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8791,7 +8816,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8808,50 +8833,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>6.4880182068006095E-2</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>0.86981887578805783</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8860,11 +8885,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0.25026664469836518</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>6.4880182068006095E-2</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8911,167 +8936,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0.25026664469836518</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>0.21037109747306657</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>-0.27072013072064943</v>
       </c>
-      <c r="E52" s="153">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153">
+        <f t="shared" si="44"/>
         <v>9.8550463754670428E-2</v>
       </c>
-      <c r="F52" s="153">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153">
+        <f t="shared" si="44"/>
         <v>1.0790219955675238</v>
       </c>
-      <c r="G52" s="153">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153">
+        <f t="shared" si="44"/>
         <v>0.43273867770668673</v>
       </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.23041010677016285</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>3.1253593911711373</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.68906612775274989</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9079,112 +9105,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>8.3165478525897892E-3</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>3.1253593911711373</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>7.2157016434163928E-3</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>9.4733071333505912E-3</v>
-      </c>
-      <c r="F56" s="153">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>1.4307623672695646E-2</v>
-      </c>
-      <c r="G56" s="153">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>2.2623480738800581E-2</v>
-      </c>
-      <c r="H56" s="153">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>1.7352821167386824E-2</v>
-      </c>
-      <c r="I56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.3165478525897892E-3</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>7.2157016434163928E-3</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>9.4733071333505912E-3</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.4307623672695646E-2</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>2.2623480738800581E-2</v>
+      </c>
+      <c r="H57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.7352821167386824E-2</v>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>3.6993214234084539</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.18356509301826865</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>0.14643329519409959</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9747,7 +9963,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10430,6 +10648,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10469,8 +10688,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10488,7 +10707,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10503,7 +10722,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10517,7 +10736,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10527,7 +10746,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10545,10 +10764,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10557,22 +10776,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>975513.49412237445</v>
+        <f>(E49-I49-E53)</f>
+        <v>912437.76119523181</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.85610165615448253</v>
+        <v>0.86540598004107694</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10582,20 +10802,21 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.44960069409931963</v>
+        <v>0.42055618546602086</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10613,7 +10834,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10632,32 +10853,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10674,7 +10895,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10685,7 +10906,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10702,7 +10923,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10713,7 +10934,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10730,7 +10951,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10741,7 +10962,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10758,7 +10979,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10769,7 +10990,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10786,7 +11007,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10796,7 +11017,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10818,7 +11039,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10840,7 +11061,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10861,7 +11082,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10886,7 +11107,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10913,7 +11134,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10934,7 +11155,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10951,7 +11172,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10963,13 +11184,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10991,7 +11212,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -11011,7 +11232,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -11020,7 +11241,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11040,7 +11261,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11053,7 +11274,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11073,7 +11294,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11119,7 +11340,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11128,7 +11349,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11144,7 +11365,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11154,7 +11375,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11171,7 +11392,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11181,7 +11402,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11198,7 +11419,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11208,7 +11429,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11228,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11238,7 +11459,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11255,7 +11476,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11265,7 +11486,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11291,7 +11512,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11318,7 +11539,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11345,7 +11566,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11366,7 +11587,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11387,7 +11608,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11408,7 +11629,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11429,7 +11650,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11446,7 +11667,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11464,7 +11685,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11483,7 +11704,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11502,7 +11723,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11519,7 +11740,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11532,7 +11753,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11549,7 +11770,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11562,7 +11783,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11579,7 +11800,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11606,7 +11827,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11622,14 +11843,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11646,7 +11867,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11654,11 +11875,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2386248464268006</v>
+        <v>1.2385476072925743</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>878581.37606745819</v>
+        <v>878526.58880476875</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11676,7 +11897,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11687,14 +11908,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>284393</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11702,30 +11923,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11742,11 +11963,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11756,7 +11977,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11777,7 +11998,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11798,7 +12019,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11819,7 +12040,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11834,7 +12055,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11865,11 +12086,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11879,7 +12100,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11900,7 +12121,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11915,7 +12136,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11937,21 +12158,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11961,23 +12182,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11998,7 +12219,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -12028,7 +12249,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12049,7 +12270,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12079,7 +12300,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12109,7 +12330,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12140,7 +12361,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12167,12 +12388,12 @@
         <v>3.6534604450711924E-2</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12202,7 +12423,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12232,7 +12453,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12262,7 +12483,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12283,7 +12504,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12314,7 +12535,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12335,28 +12556,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9389461763010996E-2</v>
+        <v>7.9394412701721123E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5589847588695742E-2</v>
+        <v>8.5595185200013524E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7937177556892718E-2</v>
+        <v>8.7942661553971874E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12386,21 +12607,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10307904660855768</v>
+        <v>0.10308547489300153</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3983340177117088E-2</v>
+        <v>4.3986083095593251E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3983340177117088E-2</v>
+        <v>4.3986083095593251E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12417,29 +12638,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12456,24 +12677,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5383483279816579</v>
+        <v>7.5390037750518593</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8291875078906346</v>
+        <v>7.8298730952973719</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12484,18 +12705,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1862594108890829</v>
+        <v>3.1864999745880511</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1862594108890829</v>
+        <v>3.1864999745880511</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12514,114 +12735,114 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9030044.9052064884</v>
+        <v>9030835.6494648214</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.747891411247243</v>
+        <v>3.7482172842817665</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8924898852112197</v>
+        <v>3.892830743319863</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1768758164344355</v>
+        <v>5.1773291458332285</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-939373.06210821285</v>
+        <v>-939373.06210821273</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40492601986817001</v>
+        <v>-0.40492601986816995</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1914886.5562305874</v>
+        <v>1915005.9736666826</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70161611988035355</v>
+        <v>0.70165987453406231</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82543072927100425</v>
+        <v>0.82548220533419092</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10005558.399328863</v>
+        <v>10006468.561023291</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5519698449962291</v>
+        <v>3.5522936787867558</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0445815112594268</v>
+        <v>4.0449511389476589</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.1787880529367403</v>
+        <v>4.1791690338667715</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3129945946140547</v>
+        <v>4.3133869287858841</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.59738052583727</v>
+        <v>5.5978853312992491</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12631,58 +12852,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3674974.6421282291</v>
+        <v>3675252.1039979388</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3465139439613936</v>
+        <v>1.3466156062347052</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5841340517192866</v>
+        <v>1.5842536543937709</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5841340517192866</v>
+        <v>1.5842536543937709</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5841340517192866</v>
+        <v>1.5842536543937709</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1068430501241662</v>
+        <v>2.1070021175106919</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12692,58 +12913,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6528925.6736982269</v>
+        <v>6529493.147509926</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.4492418944788112</v>
+        <v>2.4494546425107306</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.8143577814893566</v>
+        <v>2.8146023966707148</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.8814610523280133</v>
+        <v>2.8817113441302711</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9485643231666705</v>
+        <v>2.9488202915898274</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.8521117879807178</v>
+        <v>3.8524437244049707</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12752,7 +12973,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12761,6 +12982,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D58E38-CD73-45B0-B50C-BDE85063886D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86EBAD2-C500-4D16-B41F-5359FEFF91EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1300,7 +1298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1558,13 +1556,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2214,6 +2328,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2453,981 +2591,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.33505756595532243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14727310847787448</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3695566779006881E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6534604450711924E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8127543493622026E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37462639998772207</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3630,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3644,28 +2807,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -3681,24 +2844,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>2319863422</v>
@@ -3706,10 +2869,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3730,7 +2893,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3738,10 +2901,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3755,55 +2918,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3970,7 +3133,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>7392</v>
@@ -4154,7 +3317,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4250,7 +3413,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4282,7 +3445,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.0686+0.0906+0.2139</f>
@@ -4304,15 +3467,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10308547489300153</v>
+        <v>0.10334286830174079</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6526131816818019E-2</v>
+        <v>3.6617333662530518E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4353,13 +3516,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4425,7 +3588,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4436,7 +3599,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>14672</v>
@@ -4545,7 +3708,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4556,7 +3719,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59">
         <v>21963</v>
@@ -4746,7 +3909,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>6069865</v>
@@ -4766,7 +3929,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4774,10 +3937,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4787,16 +3950,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4805,10 +3968,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4857,7 +4020,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4878,7 +4041,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4896,7 +4059,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4935,7 +4098,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4953,7 +4116,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5039,8 +4202,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5081,62 +4244,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1448.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>福壽園</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>2319863422</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>8977.8714431399985</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>8954.6728089200005</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5159,16 +4322,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5183,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5193,40 +4356,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5239,29 +4402,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5271,12 +4434,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5284,9 +4447,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5294,91 +4457,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.33505756595532243</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.18356509301826862</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.14727310847787448</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.68906612775274989</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>9.3695566779006881E-2</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.29834036945664055</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>3.6534604450711924E-2</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.4239737587877962</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2385476072925743</v>
+        <v>1.2354627888066378</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.8127543493622026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.37104543266846</v>
+        <v>11.342723863962838</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>0.01</v>
+        <f>Fin_Analysis!I80</f>
+        <v>3.6534604450711924E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5387,18 +4550,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.37462639998772207</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>4.6534604450711926E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3986083095593251E-2</v>
+        <v>4.4095911642018586E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5408,62 +4571,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4494546425107306</v>
+        <v>2.4516276584306422</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.4303102830657162</v>
+        <v>4.4341182692234735</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8817113441302711</v>
-      </c>
-      <c r="G29" s="278">
+        <v>2.8842678334478142</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.8524437244049707</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>3.8557550167160644</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5473,7 +4636,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5484,14 +4647,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5501,7 +4664,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5511,14 +4674,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5528,7 +4691,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5543,14 +4706,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6494,7 +5657,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6508,7 +5670,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6535,16 +5697,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6562,7 +5724,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6595,7 +5757,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6962,7 +6124,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7013,7 +6175,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7064,7 +6226,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7115,7 +6277,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7217,7 +6379,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7370,7 +6532,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7880,7 +7042,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8390,7 +7552,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8441,7 +7603,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8510,7 +7672,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8714,7 +7876,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8816,7 +7978,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8834,14 +7996,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>0.86981887578805783</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.29834036945664055</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8885,7 +8047,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8936,7 +8098,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8987,7 +8149,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -9038,7 +8200,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9055,7 +8217,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9255,11 +8417,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9305,7 +8467,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9355,7 +8517,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10783,11 +9945,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>912437.76119523181</v>
+        <v>914625.88464367623</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.86540598004107694</v>
+        <v>0.86508320916988157</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10809,7 +9971,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.42055618546602086</v>
+        <v>0.42152529183601667</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10859,7 +10021,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -11017,7 +10179,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11429,7 +10591,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11875,11 +11037,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2385476072925743</v>
+        <v>1.2354627888066378</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>878526.58880476875</v>
+        <v>876338.46535632433</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11897,7 +11059,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11911,11 +11073,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>284393</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11926,11 +11088,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11942,11 +11104,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11963,7 +11125,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -12040,7 +11202,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12086,7 +11248,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12121,7 +11283,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12160,19 +11322,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12182,18 +11344,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12270,7 +11432,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12300,7 +11462,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12330,7 +11492,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12393,7 +11555,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12423,7 +11585,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12504,7 +11666,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12535,7 +11697,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12556,28 +11718,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9394412701721123E-2</v>
+        <v>7.9592652061256111E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5595185200013524E-2</v>
+        <v>8.5808907225479958E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7942661553971874E-2</v>
+        <v>8.8162244976898105E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12607,21 +11769,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10308547489300153</v>
+        <v>0.10334286830174079</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3986083095593251E-2</v>
+        <v>4.4095911642018586E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3986083095593251E-2</v>
+        <v>4.4095911642018586E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12643,24 +11805,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12677,24 +11839,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5390037750518593</v>
+        <v>7.5457218682264244</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8298730952973719</v>
+        <v>7.8370448129506682</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12705,18 +11867,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1864999745880511</v>
+        <v>3.1878782285542546</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1864999745880511</v>
+        <v>3.1878782285542546</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12735,14 +11897,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12759,21 +11921,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9030835.6494648214</v>
+        <v>9039107.3803936634</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7482172842817665</v>
+        <v>3.7515573639137263</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.892830743319863</v>
+        <v>3.8963963544892102</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1773291458332285</v>
+        <v>5.1820712843558052</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12783,14 +11945,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-939373.06210821273</v>
+        <v>-936945.74153428979</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40492601986816995</v>
+        <v>-0.40387969940339435</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12801,17 +11963,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1915005.9736666826</v>
+        <v>1914826.8475125399</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70165987453406231</v>
+        <v>0.70159424255349923</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82548220533419092</v>
+        <v>0.82540499123941091</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12822,27 +11984,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10006468.561023291</v>
+        <v>10016988.486371914</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5522936787867558</v>
+        <v>3.5560572601903493</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0449511389476589</v>
+        <v>4.0492719070638312</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.1791690338667715</v>
+        <v>4.1835967766945288</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3133869287858841</v>
+        <v>4.3179216463252263</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.5978853312992491</v>
+        <v>5.6035965761918218</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12852,21 +12014,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12879,31 +12041,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3675252.1039979388</v>
+        <v>3676841.7574828058</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3466156062347052</v>
+        <v>1.347198056670935</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5842536543937709</v>
+        <v>1.5849388902010999</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5842536543937709</v>
+        <v>1.5849388902010999</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5842536543937709</v>
+        <v>1.5849388902010999</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1070021175106919</v>
+        <v>2.1079134572403069</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12913,21 +12075,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12940,31 +12102,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6529493.147509926</v>
+        <v>6535299.7702061851</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.4494546425107306</v>
+        <v>2.4516276584306422</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.8146023966707148</v>
+        <v>2.8171053986324655</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.8817113441302711</v>
+        <v>2.8842678334478142</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9488202915898274</v>
+        <v>2.951430268263163</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.8524437244049707</v>
+        <v>3.8557550167160644</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12973,7 +12135,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86EBAD2-C500-4D16-B41F-5359FEFF91EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{868EA1EE-45BB-4DBD-9570-06C1DF5EC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2402,7 +2406,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2499,12 +2503,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2793,7 +2813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2807,28 +2827,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -2844,24 +2864,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>2319863422</v>
@@ -2869,10 +2889,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2893,7 +2913,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2901,10 +2921,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2918,61 +2938,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3133,7 +3153,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>7392</v>
@@ -3283,9 +3303,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3301,7 +3321,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3317,7 +3337,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3332,10 +3352,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3347,9 +3368,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3396,10 +3417,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3413,9 +3435,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3429,7 +3451,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3445,7 +3467,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.0686+0.0906+0.2139</f>
@@ -3467,15 +3489,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10334286830174079</v>
+        <v>0.10387463390206297</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6617333662530518E-2</v>
+        <v>3.6805753422280152E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3516,13 +3538,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3543,7 +3565,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3553,7 +3575,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>170507</v>
@@ -3588,7 +3610,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3599,7 +3621,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>14672</v>
@@ -3638,7 +3660,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3708,7 +3730,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3719,7 +3741,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59">
         <v>21963</v>
@@ -3774,7 +3796,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <f>538274+108026</f>
@@ -3909,7 +3931,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>6069865</v>
@@ -3929,7 +3951,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3937,10 +3959,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3948,7 +3970,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3956,10 +3978,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3981,7 +4003,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4020,7 +4042,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4041,7 +4063,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4059,7 +4081,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4098,7 +4120,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4116,7 +4138,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4139,28 +4161,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4202,8 +4229,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4244,7 +4271,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4256,15 +4283,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.86</v>
+        <v>3.84</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4284,7 +4311,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4297,7 +4324,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>8954.6728089200005</v>
+        <v>8908.2755404799991</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4331,7 +4358,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4346,7 +4373,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4356,40 +4383,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4402,29 +4429,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4434,12 +4461,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4449,7 +4476,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4457,21 +4484,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="276">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.18356509301826862</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4479,69 +4506,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.68906612775274989</v>
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.29834036945664055</v>
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.4239737587877962</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2354627888066378</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.8127543493622026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.342723863962838</v>
+        <v>11.28465703726773</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>3.6534604450711924E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4550,18 +4577,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>4.6534604450711926E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4095911642018586E-2</v>
+        <v>4.4322813500960671E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4571,40 +4598,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4516276584306422</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>4.4341182692234735</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8842678334478142</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.8557550167160644</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4612,21 +4639,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4636,25 +4663,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4664,7 +4691,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4674,14 +4701,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4691,7 +4718,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4706,14 +4733,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5613,27 +5640,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5665,12 +5692,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5697,16 +5724,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5724,7 +5751,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5757,7 +5784,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5768,7 +5795,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6124,7 +6151,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6175,7 +6202,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6226,7 +6253,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6277,7 +6304,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6379,7 +6406,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6532,7 +6559,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6787,7 +6814,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6838,7 +6865,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6892,15 +6919,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>8808828</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6940,50 +6967,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>4247879</v>
+        <f>Fin_Analysis!C13</f>
+        <v>170507</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6991,50 +7018,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>170507</v>
+        <f>Fin_Analysis!C18</f>
+        <v>657708</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7042,101 +7069,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>657708</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>1148286</v>
+        <f>Fin_Analysis!I15</f>
+        <v>252707</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7144,101 +7171,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>881357</v>
+        <f>Fin_Analysis!I34</f>
+        <v>31686</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>252707</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>284393</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7246,50 +7273,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>31686</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7297,50 +7324,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>284393</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7348,50 +7375,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>6779185</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7399,272 +7426,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>709320</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>3021352</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>5787476</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.36878037823243809</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>3021352</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.36878037823243809</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.33505756595532243</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.37040079645390134</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.37303985471105594</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.3510182363673735</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.37011057109848078</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.38965929247216891</v>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.14727310847787448</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.16242391645706949</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.16697694776270849</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.16178864666846671</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.16258739180384033</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.16612557749989554</v>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.33505756595532243</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.37040079645390134</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.37303985471105594</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.3510182363673735</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.37011057109848078</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.38965929247216891</v>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>3.6534604450711924E-2</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>1.9225686190900274E-2</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>1.8360185188370005E-2</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>2.3925027621652838E-2</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>4.6598514839179629E-2</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>2.6204824202037305E-2</v>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7672,50 +7699,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.14727310847787448</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.8127543493622026E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.16242391645706949</v>
+        <f t="shared" si="37"/>
+        <v>2.3061061158781483E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.16697694776270849</v>
+        <f t="shared" si="37"/>
+        <v>3.115422847924714E-3</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.16178864666846671</v>
+        <f t="shared" si="37"/>
+        <v>5.0329267010367565E-3</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.16258739180384033</v>
+        <f t="shared" si="37"/>
+        <v>6.0132693964143015E-3</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.16612557749989554</v>
+        <f t="shared" si="37"/>
+        <v>5.022106838313352E-3</v>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7723,50 +7750,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>3.6534604450711924E-2</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>9.3695566779006881E-2</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>1.9225686190900274E-2</v>
+        <f t="shared" si="38"/>
+        <v>9.3406507382026188E-2</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>1.8360185188370005E-2</v>
+        <f t="shared" si="38"/>
+        <v>9.7232493266971878E-2</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>2.3925027621652838E-2</v>
+        <f t="shared" si="38"/>
+        <v>9.6689258915413537E-2</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>4.6598514839179629E-2</v>
+        <f t="shared" si="38"/>
+        <v>0.11293072671866494</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
-        <v>2.6204824202037305E-2</v>
+        <f t="shared" si="38"/>
+        <v>0.10276273406572643</v>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7774,50 +7801,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.8127543493622026E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>4.6414632410829562E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.3061061158781483E-3</v>
+        <f t="shared" si="39"/>
+        <v>3.264144010064348E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.115422847924714E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.2411817109286591E-2</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.0329267010367565E-3</v>
+        <f t="shared" si="39"/>
+        <v>9.7805221245344208E-3</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>6.0132693964143015E-3</v>
+        <f t="shared" si="39"/>
+        <v>3.5961815090885314E-2</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.022106838313352E-3</v>
+        <f t="shared" si="39"/>
+        <v>2.0813916801257677E-2</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7825,221 +7852,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>9.3695566779006881E-2</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.33821176757689253</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>9.3406507382026188E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.31959554729958106</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>9.7232493266971878E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.32886327911368241</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>9.6689258915413537E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.35176538160152221</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>0.11293072671866494</v>
+        <f t="shared" si="40"/>
+        <v>0.26579771105253469</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>0.10276273406572643</v>
+        <f t="shared" si="40"/>
+        <v>0.28941154812060083</v>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>4.6414632410829562E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>3.264144010064348E-2</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.2411817109286591E-2</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>9.7805221245344208E-3</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>3.5961815090885314E-2</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>2.0813916801257677E-2</v>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.33821176757689253</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.31959554729958106</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.32886327911368241</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.35176538160152221</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.26579771105253469</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.28941154812060083</v>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>6.4880182068006095E-2</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.29834036945664055</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0.25026664469836518</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8047,522 +8074,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>6.4880182068006095E-2</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>0.21037109747306657</v>
+      </c>
+      <c r="D51" s="153">
+        <f t="shared" si="44"/>
+        <v>-0.27072013072064943</v>
+      </c>
+      <c r="E51" s="153">
+        <f t="shared" si="44"/>
+        <v>9.8550463754670428E-2</v>
+      </c>
+      <c r="F51" s="153">
+        <f t="shared" si="44"/>
+        <v>1.0790219955675238</v>
+      </c>
+      <c r="G51" s="153">
+        <f t="shared" si="44"/>
+        <v>0.43273867770668673</v>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0.25026664469836518</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>0.21037109747306657</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>-0.27072013072064943</v>
-      </c>
-      <c r="E53" s="153">
-        <f t="shared" si="44"/>
-        <v>9.8550463754670428E-2</v>
-      </c>
-      <c r="F53" s="153">
-        <f t="shared" si="44"/>
-        <v>1.0790219955675238</v>
-      </c>
-      <c r="G53" s="153">
-        <f t="shared" si="44"/>
-        <v>0.43273867770668673</v>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>3.1253593911711373</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.68906612775274989</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.3165478525897892E-3</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>7.2157016434163928E-3</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>9.4733071333505912E-3</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.4307623672695646E-2</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>2.2623480738800581E-2</v>
+      </c>
+      <c r="H55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.7352821167386824E-2</v>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>3.1253593911711373</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>8.3165478525897892E-3</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>7.2157016434163928E-3</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>9.4733071333505912E-3</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.4307623672695646E-2</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>2.2623480738800581E-2</v>
-      </c>
-      <c r="H57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.7352821167386824E-2</v>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>3.6993214234084539</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.18356509301826865</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>0.14643329519409959</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9122,12 +9053,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9809,27 +9736,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9943,13 +9873,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>914625.88464367623</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>0.86508320916988157</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9969,9 +9899,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.42152529183601667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10021,7 +9951,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10068,7 +9998,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10096,7 +10026,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10179,7 +10109,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10201,7 +10131,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10269,7 +10199,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10591,7 +10521,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10728,7 +10658,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11015,9 +10945,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11035,13 +10965,13 @@
         <f>MAX(D4,0)</f>
         <v>709320</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2354627888066378</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>876338.46535632433</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11059,7 +10989,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11125,7 +11055,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11160,7 +11090,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11181,7 +11111,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11202,7 +11132,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11217,7 +11147,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11248,7 +11178,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11262,7 +11192,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11283,7 +11213,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11298,7 +11228,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11320,7 +11250,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11328,11 +11258,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11360,7 +11290,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11432,7 +11362,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11462,7 +11392,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11492,7 +11422,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11550,12 +11480,12 @@
         <v>3.6534604450711924E-2</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11585,7 +11515,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11615,7 +11545,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11666,7 +11596,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11697,7 +11627,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11718,28 +11648,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9592652061256111E-2</v>
+        <v>8.0002207506156359E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5808907225479958E-2</v>
+        <v>8.6250449305873125E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8162244976898105E-2</v>
+        <v>8.8615896495346444E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11769,21 +11699,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10334286830174079</v>
+        <v>0.10387463390206297</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4095911642018586E-2</v>
+        <v>4.4322813500960671E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4095911642018586E-2</v>
+        <v>4.4322813500960671E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11800,27 +11730,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11839,24 +11769,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5457218682264244</v>
+        <v>7.5606050730985714</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8370448129506682</v>
+        <v>7.8529048660382896</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11867,18 +11797,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1878782285542546</v>
+        <v>3.1911446397549836</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1878782285542546</v>
+        <v>3.1911446397549836</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11897,14 +11827,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11917,63 +11847,63 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9039107.3803936634</v>
+        <v>9057400.0820866358</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7515573639137263</v>
+        <v>3.7589569471228361</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8963963544892102</v>
+        <v>3.9042816039049715</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1820712843558052</v>
+        <v>5.1925583911205777</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-936945.74153428979</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40387969940339435</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1914826.8475125399</v>
+        <v>1914707.4300764448</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70159424255349923</v>
+        <v>0.70155048789979069</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82540499123941091</v>
+        <v>0.82535351517622435</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -11982,29 +11912,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>10016988.486371914</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5560572601903493</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0492719070638312</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>4.1835967766945288</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3179216463252263</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.6035965761918218</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12014,21 +11944,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12041,31 +11971,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3676841.7574828058</v>
+        <v>3680609.1777664209</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.347198056670935</v>
+        <v>1.348578442779317</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5849388902010999</v>
+        <v>1.5865628738580202</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5849388902010999</v>
+        <v>1.5865628738580202</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5849388902010999</v>
+        <v>1.5865628738580202</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1079134572403069</v>
+        <v>2.1100732988757946</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12075,21 +12005,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12102,31 +12032,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6535299.7702061851</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>2.4516276584306422</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>2.8171053986324655</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>2.8842678334478142</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>2.951430268263163</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>3.8557550167160644</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12135,7 +12065,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{868EA1EE-45BB-4DBD-9570-06C1DF5EC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C59F5FE5-B1BD-4F3C-BFFF-9FDCB84EB64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1917,7 +1925,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2153,12 +2160,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2360,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2596,8 +2604,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2813,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,162 +2839,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45637</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>2319863422</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>243</v>
+      <c r="B15" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>272</v>
+      <c r="C19" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>272</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>272</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>241</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>240</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3043,507 +3051,511 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>2628029</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>2171626</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>2325848</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>1892537</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>1850574</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>1651299</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <f>506360+123086+188935+62160</f>
         <v>880541</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <f>463624+123266+162065+55417</f>
         <v>804372</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <f>469616+167358+177538+53122</f>
         <v>867634</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <f>385805+76495+149109+52906</f>
         <v>664315</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <f>416125+72897+141477+54418</f>
         <v>684917</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <f>401192+70137+117113+55002</f>
         <v>643444</v>
       </c>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>48899+166609+171530</f>
         <v>387038</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>43155+155953+153616</f>
         <v>352724</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <f>43986+146734+197643</f>
         <v>388363</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <f>36072+136713+133406</f>
         <v>306191</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <f>38671+123170+139039</f>
         <v>300880</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <f>43876+92730+137717</f>
         <v>274323</v>
       </c>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="150">
+        <v>238</v>
+      </c>
+      <c r="C29" s="149">
         <v>7392</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>5008</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>7246</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>9525</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>11128</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>8293</v>
       </c>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>184676</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>152133</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>169611</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="149">
         <v>137241</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <v>156740</v>
       </c>
-      <c r="H30" s="150">
+      <c r="H30" s="149">
         <v>127269</v>
       </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <f>1558687-1462673</f>
         <v>96014</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <f>1208319-1166568</f>
         <v>41751</v>
       </c>
-      <c r="E31" s="150">
+      <c r="E31" s="149">
         <f>1306350-1263647</f>
         <v>42703</v>
       </c>
-      <c r="F31" s="150">
+      <c r="F31" s="149">
         <f>1076532-1031253</f>
         <v>45279</v>
       </c>
-      <c r="G31" s="150">
+      <c r="G31" s="149">
         <f>1025232-938998</f>
         <v>86234</v>
       </c>
-      <c r="H31" s="150">
+      <c r="H31" s="149">
         <f>862237-818965</f>
         <v>43272</v>
       </c>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>166609</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>155953</v>
       </c>
-      <c r="E32" s="150">
+      <c r="E32" s="149">
         <v>146734</v>
       </c>
-      <c r="F32" s="150">
+      <c r="F32" s="149">
         <v>136713</v>
       </c>
-      <c r="G32" s="150">
+      <c r="G32" s="149">
         <v>123170</v>
       </c>
-      <c r="H32" s="150">
+      <c r="H32" s="149">
         <v>92730</v>
       </c>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <f>30952+11624+2054</f>
         <v>44630</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <f>69532+10802+4734</f>
         <v>85068</v>
       </c>
-      <c r="E33" s="150">
+      <c r="E33" s="149">
         <f>123181+5449+43950+3022</f>
         <v>175602</v>
       </c>
-      <c r="F33" s="150">
+      <c r="F33" s="149">
         <f>100209+6209+11785</f>
         <v>118203</v>
       </c>
-      <c r="G33" s="150">
+      <c r="G33" s="149">
         <f>86119+5245+98127+229</f>
         <v>189720</v>
       </c>
-      <c r="H33" s="150">
+      <c r="H33" s="149">
         <f>96084+7343+8926+7165+7582</f>
         <v>127100</v>
       </c>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>2029643</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>6779185</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>709320</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.0686+0.0906+0.2139</f>
         <v>0.37309999999999999</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.0758+0.0564</f>
         <v>0.13220000000000001</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="152">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10387463390206297</v>
-      </c>
-      <c r="D45" s="152">
+        <v>0.10352152099031389</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6805753422280152E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>3.6680635419242824E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3621,7 +3633,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>14672</v>
@@ -3654,7 +3666,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3666,7 +3678,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3685,8 +3697,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3741,7 +3753,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59">
         <v>21963</v>
@@ -3762,7 +3774,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3777,7 +3789,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3790,7 +3802,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3845,17 +3857,17 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <f>1091455+12772</f>
         <v>1104227</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3885,7 +3897,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3919,21 +3931,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214">
         <v>881357</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>267</v>
+      </c>
+      <c r="C83" s="214">
         <v>6069865</v>
       </c>
     </row>
@@ -3951,20 +3963,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3994,10 +4006,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4009,12 +4021,12 @@
         <f>C25</f>
         <v>2628029</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>2628029</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>2628029</v>
       </c>
@@ -4027,75 +4039,75 @@
         <f>C26</f>
         <v>880541</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.33505756595532243</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>880541.00000000012</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>880541.00000000012</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>387038</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.14727310847787448</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>387038</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>387038</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>7392</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>7392</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>121979</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>4.6414632410829562E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*2%</f>
         <v>52560.58</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*1%</f>
         <v>26280.29</v>
       </c>
@@ -4108,12 +4120,12 @@
         <f>MAX(C31,0)</f>
         <v>96014</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>96014.000000000015</v>
       </c>
@@ -4126,12 +4138,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>246234.66666666666</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>9.3695566779006881E-2</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>246234.66666666669</v>
       </c>
@@ -4140,16 +4152,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.37309999999999999</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.15920000000000001</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>0.0686+0.0906</f>
         <v>0.15920000000000001</v>
       </c>
@@ -4230,7 +4242,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4282,11 +4294,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>3.84</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>274</v>
+      <c r="G3" s="131">
+        <v>3.85</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4324,7 +4336,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>8908.2755404799991</v>
+        <v>8931.4741747000007</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4334,11 +4346,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4360,11 +4372,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0015</v>
       </c>
@@ -4372,8 +4384,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4382,10 +4394,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4393,7 +4405,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4401,13 +4413,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4416,12 +4428,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="174">
+        <v>235</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4431,7 +4443,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4442,7 +4454,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4450,13 +4462,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4466,129 +4478,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="175">
+        <v>236</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.18356509301826862</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.68906612775274989</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.29834036945664055</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.4239737587877962</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.2333306838419804</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.28465703726773</v>
+        <v>11.323149111827687</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.50016774928512098</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>4.6534604450711926E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4322813500960671E-2</v>
+        <v>4.4172141896697867E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4605,10 +4617,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4616,22 +4628,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>2.4511689649383865</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>4.4332045274373506</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>2.8837281940451605</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>3.854960458641175</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4639,23 +4651,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4663,9 +4675,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4673,17 +4685,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>Strongly agree</v>
       </c>
@@ -4691,26 +4703,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4718,9 +4730,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -4733,16 +4745,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5694,10 +5706,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5723,16 +5735,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5746,11 +5758,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85">
@@ -5775,7 +5787,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5783,7 +5795,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93">
@@ -5847,47 +5859,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>2628029</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2171626</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>2325848</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1892537</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>1850574</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>1651299</v>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5949,47 +5961,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>880541</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>804372</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>867634</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>664315</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>684917</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>643444</v>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6000,47 +6012,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1747488</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>1367254</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>1458214</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>1228222</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>1165657</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>1007855</v>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6051,47 +6063,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>387038</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>352724</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>388363</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>306191</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>300880</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>274323</v>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6102,47 +6114,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6151,49 +6163,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>246234.66666666666</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>202844</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>226148</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>182988</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>208986.66666666666</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>169692</v>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6201,50 +6213,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.4239737587877962</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.37376877970700295</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.3627507042592637</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.39050385804874621</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>0.35437131037901398</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>0.34145239596220917</v>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6252,50 +6264,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>811686</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>843703</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>739043</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>655790.33333333337</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>563840</v>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6303,50 +6315,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.37271720016525262</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-3.7948187928690549E-2</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>0.14161557581899836</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>0.12695012786098803</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>0.16307876939084381</v>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6357,47 +6369,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>96014</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>41751</v>
       </c>
-      <c r="E16" s="199">
+      <c r="E16" s="198">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>42703</v>
       </c>
-      <c r="F16" s="199">
+      <c r="F16" s="198">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>45279</v>
       </c>
-      <c r="G16" s="199">
+      <c r="G16" s="198">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>86234</v>
       </c>
-      <c r="H16" s="199">
+      <c r="H16" s="198">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>43272</v>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6406,49 +6418,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="199">
+        <v>238</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>7392</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5008</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>7246</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>9525</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>11128</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>8293</v>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6459,47 +6471,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>6.3396941205747723E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>7.1813931128104011E-2</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="151">
         <f t="shared" si="6"/>
         <v>6.3088387547251587E-2</v>
       </c>
-      <c r="F18" s="152">
+      <c r="F18" s="151">
         <f t="shared" si="6"/>
         <v>7.223795360407749E-2</v>
       </c>
-      <c r="G18" s="152">
+      <c r="G18" s="151">
         <f t="shared" si="6"/>
         <v>6.6557727494280156E-2</v>
       </c>
-      <c r="H18" s="152">
+      <c r="H18" s="151">
         <f t="shared" si="6"/>
         <v>5.6155790077993144E-2</v>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6510,47 +6522,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>166609</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>155953</v>
       </c>
-      <c r="E19" s="199">
+      <c r="E19" s="198">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>146734</v>
       </c>
-      <c r="F19" s="199">
+      <c r="F19" s="198">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>136713</v>
       </c>
-      <c r="G19" s="199">
+      <c r="G19" s="198">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>123170</v>
       </c>
-      <c r="H19" s="199">
+      <c r="H19" s="198">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>92730</v>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6559,49 +6571,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>1.6982308794918168E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>3.9172491027460531E-2</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>7.5500204656538172E-2</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>6.2457431479543066E-2</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0.10251954258516546</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>7.6969706879250824E-2</v>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6612,47 +6624,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>44630</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>85068</v>
       </c>
-      <c r="E21" s="199">
+      <c r="E21" s="198">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>175602</v>
       </c>
-      <c r="F21" s="199">
+      <c r="F21" s="198">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>118203</v>
       </c>
-      <c r="G21" s="199">
+      <c r="G21" s="198">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>189720</v>
       </c>
-      <c r="H21" s="199">
+      <c r="H21" s="198">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>127100</v>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6663,47 +6675,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>888830.33333333326</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>694042</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>764886</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>665729</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>491878.33333333337</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>477905</v>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6714,47 +6726,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.2536588256826694</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.2396966604746858</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>0.2466474593352618</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>0.26382403620114164</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>0.19934828328940102</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>0.21705866109045061</v>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6765,7 +6777,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>666622.75</v>
       </c>
@@ -6813,50 +6825,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.28065784683539807</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-9.2620338194188412E-2</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>0.14894499113002438</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>0.35344241631568785</v>
       </c>
-      <c r="G25" s="233">
+      <c r="G25" s="230">
         <f t="shared" si="10"/>
         <v>2.9238725967155259E-2</v>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6920,7 +6932,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>8808828</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6973,43 +6985,43 @@
         <f>Fin_Analysis!C13</f>
         <v>170507</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7024,43 +7036,43 @@
         <f>Fin_Analysis!C18</f>
         <v>657708</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7069,49 +7081,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>2029643</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7126,43 +7138,43 @@
         <f>Fin_Analysis!I15</f>
         <v>252707</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7177,43 +7189,43 @@
         <f>Fin_Analysis!I34</f>
         <v>31686</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7277,45 +7289,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>6779185</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7328,45 +7340,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>709320</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7381,43 +7393,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7479,47 +7491,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.36878037823243809</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7528,7 +7540,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7548,47 +7560,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.33505756595532243</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.37040079645390134</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.37303985471105594</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.3510182363673735</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.37011057109848078</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.38965929247216891</v>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7597,49 +7609,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14727310847787448</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.16242391645706949</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.16697694776270849</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.16178864666846671</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.16258739180384033</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>0.16612557749989554</v>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7650,47 +7662,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>1.9225686190900274E-2</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>1.8360185188370005E-2</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>2.3925027621652838E-2</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>4.6598514839179629E-2</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>2.6204824202037305E-2</v>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7701,47 +7713,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>2.3061061158781483E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>3.115422847924714E-3</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>5.0329267010367565E-3</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>6.0132693964143015E-3</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>5.022106838313352E-3</v>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7752,47 +7764,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.3695566779006881E-2</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>9.3406507382026188E-2</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>9.7232493266971878E-2</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>9.6689258915413537E-2</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>0.11293072671866494</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>0.10276273406572643</v>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7801,49 +7813,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>4.6414632410829562E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>3.264144010064348E-2</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>1.2411817109286591E-2</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>9.7805221245344208E-3</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>3.5961815090885314E-2</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>2.0813916801257677E-2</v>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7854,47 +7866,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.33821176757689253</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.31959554729958106</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>0.32886327911368241</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>0.35176538160152221</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>0.26579771105253469</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>0.28941154812060083</v>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7903,9 +7915,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7920,50 +7934,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>0.29834036945664055</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="e">
+      <c r="H48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7972,49 +7986,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>6.4880182068006095E-2</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8023,49 +8037,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.25026664469836518</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8074,49 +8088,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.21037109747306657</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>-0.27072013072064943</v>
       </c>
-      <c r="E51" s="153">
+      <c r="E51" s="152">
         <f t="shared" si="44"/>
         <v>9.8550463754670428E-2</v>
       </c>
-      <c r="F51" s="153">
+      <c r="F51" s="152">
         <f t="shared" si="44"/>
         <v>1.0790219955675238</v>
       </c>
-      <c r="G51" s="153">
+      <c r="G51" s="152">
         <f t="shared" si="44"/>
         <v>0.43273867770668673</v>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8125,7 +8139,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8142,49 +8156,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>0.68906612775274989</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8194,47 +8208,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>3.1253593911711373</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8244,47 +8258,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>8.3165478525897892E-3</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>7.2157016434163928E-3</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>9.4733071333505912E-3</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>1.4307623672695646E-2</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>2.2623480738800581E-2</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <f t="shared" si="47"/>
         <v>1.7352821167386824E-2</v>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8294,47 +8308,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8342,149 +8356,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>0.18356509301826865</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="e">
+      <c r="H58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>0.14643329519409959</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="e">
+      <c r="H59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9780,8 +9794,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9817,8 +9831,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>6779185</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9830,8 +9844,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>6069865</v>
       </c>
       <c r="K3" s="24"/>
@@ -9841,8 +9855,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>709320</v>
       </c>
       <c r="E4" s="37"/>
@@ -9873,13 +9887,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>916138.22933720704</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>0.86486012266412449</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9899,9 +9913,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0.42185646928231468</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9929,11 +9943,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9976,7 +9990,7 @@
         <f>Inputs!C48</f>
         <v>2514410</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10004,7 +10018,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10032,7 +10046,7 @@
         <f>Inputs!C50</f>
         <v>170507</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10060,7 +10074,7 @@
         <f>Inputs!C51</f>
         <v>890582</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10073,7 +10087,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10088,7 +10102,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10115,7 +10129,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10137,7 +10151,7 @@
         <f>Inputs!C54</f>
         <v>14672</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10159,7 +10173,7 @@
         <f>Inputs!C55</f>
         <v>657708</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10180,7 +10194,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10188,7 +10202,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10205,7 +10219,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10213,7 +10227,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10232,7 +10246,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10253,7 +10267,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10418,7 +10432,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>1148286</v>
       </c>
@@ -10447,7 +10461,7 @@
         <f>Inputs!C60</f>
         <v>297248</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10473,7 +10487,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10500,7 +10514,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10527,7 +10541,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10543,7 +10557,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10557,7 +10571,7 @@
         <f>Inputs!C64</f>
         <v>21963</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10584,7 +10598,7 @@
         <f>Inputs!C65</f>
         <v>47523</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10592,7 +10606,7 @@
         <f t="shared" si="1"/>
         <v>4752.3</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10610,7 +10624,7 @@
         <f>Inputs!C66</f>
         <v>2037713</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10618,7 +10632,7 @@
         <f t="shared" si="1"/>
         <v>407542.60000000003</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10637,7 +10651,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10645,7 +10659,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10664,7 +10678,7 @@
         <f>Inputs!C68</f>
         <v>646300</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10685,7 +10699,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10706,7 +10720,7 @@
         <f>Inputs!C70</f>
         <v>306381</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10727,7 +10741,7 @@
         <f>Inputs!C71</f>
         <v>99594</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10748,7 +10762,7 @@
         <f>Inputs!C72</f>
         <v>1104227</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10894,8 +10908,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>881357</v>
       </c>
       <c r="J48" s="8"/>
@@ -10921,8 +10935,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>2029643</v>
       </c>
       <c r="J49" s="87"/>
@@ -10945,9 +10959,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10965,13 +10979,13 @@
         <f>MAX(D4,0)</f>
         <v>709320</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1.2333306838419804</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>874826.12066279352</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10992,7 +11006,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11092,7 +11106,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>2811658</v>
       </c>
@@ -11100,7 +11114,7 @@
         <f t="shared" si="2"/>
         <v>0.80485215484955852</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>2262969</v>
       </c>
@@ -11131,11 +11145,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>284393</v>
@@ -11212,12 +11226,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>1745250</v>
       </c>
@@ -11296,17 +11310,17 @@
         <f>Data!C6</f>
         <v>2628029</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>2628029</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>2628029</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11317,23 +11331,23 @@
         <f>Data!C8</f>
         <v>880541</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.33505756595532243</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>880541.00000000012</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.33505756595532243</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>880541.00000000012</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.33505756595532243</v>
       </c>
@@ -11343,48 +11357,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>1747488</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>1747488</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>1747488</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>387038</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.14727310847787448</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>387038</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.14727310847787448</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>387038</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.14727310847787448</v>
       </c>
@@ -11398,54 +11412,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>246234.66666666666</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>9.3695566779006881E-2</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>246234.66666666669</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>9.3695566779006881E-2</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>246234.66666666669</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>9.3695566779006881E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.4239737587877962</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.4239737587877962</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.4239737587877962</v>
       </c>
@@ -11459,55 +11473,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>96014</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>96014.000000000015</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>96014.000000000015</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>7392</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>7392</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>7392</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.8127543493622026E-3</v>
       </c>
@@ -11515,29 +11529,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>121979</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>4.6414632410829562E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>52560.58</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0.02</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>26280.29</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0.01</v>
       </c>
@@ -11547,27 +11561,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>888830.33333333326</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.33821176757689253</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>958248.75333333318</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.36462639998772206</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>984529.04333333322</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.37462639998772207</v>
       </c>
@@ -11577,49 +11591,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>666622.75</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.2536588256826694</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>718686.56499999994</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.27346979999079157</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>738396.78249999997</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.28096979999079158</v>
       </c>
@@ -11629,69 +11643,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.28735430873999096</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.30979692950217136</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.31829321308209324</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0002207506156359E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>7.9730246861120652E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6250449305873125E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>8.5957248298562924E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8615896495346444E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>8.8314654353128838E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.37309999999999999</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.2983970960310012</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.15920000000000001</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.51388501576121715</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.15920000000000001</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.50016774928512098</v>
       </c>
@@ -11699,23 +11713,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10387463390206297</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>0.10352152099031389</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4322813500960671E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>4.4172141896697867E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4322813500960671E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>4.4172141896697867E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11737,7 +11751,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11760,27 +11774,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5606050730985714</v>
+        <v>7.5443354936149642</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8529048660382896</v>
+        <v>7.8357397951274352</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11788,27 +11802,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1911446397549836</v>
+        <v>3.186279112848506</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1911446397549836</v>
+        <v>3.186279112848506</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11822,25 +11836,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11851,21 +11865,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9057400.0820866358</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>9037602.1961668208</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7589569471228361</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>3.7508680907105001</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9042816039049715</v>
-      </c>
-      <c r="I97" s="123">
+        <v>3.8957475299883493</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1925583911205777</v>
+        <v>5.181208370394133</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11873,18 +11887,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-934518.42096036661</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-0.40283337893861865</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11893,48 +11907,48 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1914707.4300764448</v>
-      </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+        <v>1913167.8133824749</v>
+      </c>
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70155048789979069</v>
-      </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+        <v>0.70098637098779326</v>
+      </c>
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82535351517622435</v>
-      </c>
-      <c r="I99" s="216"/>
+        <v>0.82468984822093327</v>
+      </c>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>10016251.588588929</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>3.5558156598628941</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>4.0490210827596744</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>4.1833125410151695</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>4.3176039992706636</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>5.6030648396764473</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11946,25 +11960,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11975,27 +11989,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3680609.1777664209</v>
+        <v>3674997.3660160061</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.348578442779317</v>
-      </c>
-      <c r="E103" s="123">
+        <v>1.3465222700138788</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5865628738580202</v>
+        <v>1.5841438470751517</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5865628738580202</v>
-      </c>
-      <c r="H103" s="123">
+        <v>1.5841438470751517</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5865628738580202</v>
+        <v>1.5841438470751517</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1100732988757946</v>
+        <v>2.1068560776059031</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12007,25 +12021,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -12034,29 +12048,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>6534086.6354085049</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>2.4511689649383865</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>2.8165824649174129</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>2.8837281940451605</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>2.9508739231729075</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>3.854960458641175</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12067,14 +12081,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C59F5FE5-B1BD-4F3C-BFFF-9FDCB84EB64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F8CF71-7FDC-4CA1-A976-9D5A997C6582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3505,11 +3505,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10352152099031389</v>
+        <v>0.1037878690318515</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6680635419242824E-2</v>
+        <v>3.6775010147442423E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>276</v>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>8931.4741747000007</v>
+        <v>8908.2755404799991</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4385,7 +4385,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2333306838419804</v>
+        <v>1.2301656201859503</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.323149111827687</v>
+        <v>11.294090816112531</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4172141896697867E-2</v>
+        <v>4.4285791342457137E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4630,20 +4630,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4511689649383865</v>
+        <v>2.4535747294752417</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>4.4332045274373506</v>
+        <v>4.4374312177454396</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8837281940451605</v>
+        <v>2.8865585052649907</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.854960458641175</v>
+        <v>3.8586358415177742</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -9889,11 +9889,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>916138.22933720704</v>
+        <v>918383.27228970232</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.86486012266412449</v>
+        <v>0.86452895557656229</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9915,7 +9915,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.42185646928231468</v>
+        <v>0.42287705171549705</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10981,11 +10981,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2333306838419804</v>
+        <v>1.2301656201859503</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>874826.12066279352</v>
+        <v>872581.07771029824</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11666,17 +11666,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9730246861120652E-2</v>
+        <v>7.9935382903362107E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5957248298562924E-2</v>
+        <v>8.6178405643637337E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8314654353128838E-2</v>
+        <v>8.8541877011770284E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11717,17 +11717,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10352152099031389</v>
+        <v>0.1037878690318515</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4172141896697867E-2</v>
+        <v>4.4285791342457137E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4172141896697867E-2</v>
+        <v>4.4285791342457137E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11787,14 +11787,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5443354936149642</v>
+        <v>7.5517850239141948</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8357397951274352</v>
+        <v>7.8436782922543671</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11815,14 +11815,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.186279112848506</v>
+        <v>3.1879139943246289</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.186279112848506</v>
+        <v>3.1879139943246289</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11865,21 +11865,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9037602.1961668208</v>
+        <v>9046758.3168324437</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7508680907105001</v>
+        <v>3.7545718238641772</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8957475299883493</v>
+        <v>3.8996943660730921</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.181208370394133</v>
+        <v>5.1864575247608959</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11889,14 +11889,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-934518.42096036661</v>
+        <v>-932091.10038644366</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40283337893861865</v>
+        <v>-0.40178705847384305</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11907,17 +11907,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1913167.8133824749</v>
+        <v>1913108.1046644277</v>
       </c>
       <c r="D99" s="211"/>
       <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70098637098779326</v>
+        <v>0.70096449366093916</v>
       </c>
       <c r="F99" s="211"/>
       <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82468984822093327</v>
+        <v>0.82466411018934016</v>
       </c>
       <c r="I99" s="213"/>
       <c r="K99" s="24"/>
@@ -11928,27 +11928,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10016251.588588929</v>
+        <v>10027775.321110427</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5558156598628941</v>
+        <v>3.5599362876569414</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0490210827596744</v>
+        <v>4.0537492590512727</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.1833125410151695</v>
+        <v>4.1881603384199311</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3176039992706636</v>
+        <v>4.3225714177885894</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.6030648396764473</v>
+        <v>5.6093345764763924</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11989,27 +11989,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3674997.3660160061</v>
+        <v>3676883.009082953</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3465222700138788</v>
+        <v>1.3472131712935425</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5841438470751517</v>
+        <v>1.5849566721100501</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5841438470751517</v>
+        <v>1.5849566721100501</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5841438470751517</v>
+        <v>1.5849566721100501</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1068560776059031</v>
+        <v>2.1079371065591563</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12050,27 +12050,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6534086.6354085049</v>
+        <v>6540513.8185578017</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.4511689649383865</v>
+        <v>2.4535747294752417</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>2.8165824649174129</v>
+        <v>2.8193529655806615</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.8837281940451605</v>
+        <v>2.8865585052649907</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>2.9508739231729075</v>
+        <v>2.9537640449493199</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>3.854960458641175</v>
+        <v>3.8586358415177742</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F8CF71-7FDC-4CA1-A976-9D5A997C6582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFEEBA4-FDA2-4AFE-AFA8-588789E6E803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1690,7 +1687,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1838,7 +1835,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2028,9 +2024,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2366,6 +2359,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2821,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2835,172 +2829,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>2319863422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>2319863422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
+      <c r="C19" s="237" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>274</v>
-      </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>274</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>274</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>240</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>238</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3048,523 +3042,524 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>2628029</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>2171626</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>2325848</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>1892537</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>1850574</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>1651299</v>
       </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <f>506360+123086+188935+62160</f>
         <v>880541</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <f>463624+123266+162065+55417</f>
         <v>804372</v>
       </c>
-      <c r="E26" s="149">
+      <c r="E26" s="148">
         <f>469616+167358+177538+53122</f>
         <v>867634</v>
       </c>
-      <c r="F26" s="149">
+      <c r="F26" s="148">
         <f>385805+76495+149109+52906</f>
         <v>664315</v>
       </c>
-      <c r="G26" s="149">
+      <c r="G26" s="148">
         <f>416125+72897+141477+54418</f>
         <v>684917</v>
       </c>
-      <c r="H26" s="149">
+      <c r="H26" s="148">
         <f>401192+70137+117113+55002</f>
         <v>643444</v>
       </c>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>48899+166609+171530</f>
         <v>387038</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>43155+155953+153616</f>
         <v>352724</v>
       </c>
-      <c r="E27" s="149">
+      <c r="E27" s="148">
         <f>43986+146734+197643</f>
         <v>388363</v>
       </c>
-      <c r="F27" s="149">
+      <c r="F27" s="148">
         <f>36072+136713+133406</f>
         <v>306191</v>
       </c>
-      <c r="G27" s="149">
+      <c r="G27" s="148">
         <f>38671+123170+139039</f>
         <v>300880</v>
       </c>
-      <c r="H27" s="149">
+      <c r="H27" s="148">
         <f>43876+92730+137717</f>
         <v>274323</v>
       </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
         <v>7392</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="148">
         <v>5008</v>
       </c>
-      <c r="E29" s="149">
+      <c r="E29" s="148">
         <v>7246</v>
       </c>
-      <c r="F29" s="149">
+      <c r="F29" s="148">
         <v>9525</v>
       </c>
-      <c r="G29" s="149">
+      <c r="G29" s="148">
         <v>11128</v>
       </c>
-      <c r="H29" s="149">
+      <c r="H29" s="148">
         <v>8293</v>
       </c>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
         <v>184676</v>
       </c>
-      <c r="D30" s="149">
+      <c r="D30" s="148">
         <v>152133</v>
       </c>
-      <c r="E30" s="149">
+      <c r="E30" s="148">
         <v>169611</v>
       </c>
-      <c r="F30" s="149">
+      <c r="F30" s="148">
         <v>137241</v>
       </c>
-      <c r="G30" s="149">
+      <c r="G30" s="148">
         <v>156740</v>
       </c>
-      <c r="H30" s="149">
+      <c r="H30" s="148">
         <v>127269</v>
       </c>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
         <f>1558687-1462673</f>
         <v>96014</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="148">
         <f>1208319-1166568</f>
         <v>41751</v>
       </c>
-      <c r="E31" s="149">
+      <c r="E31" s="148">
         <f>1306350-1263647</f>
         <v>42703</v>
       </c>
-      <c r="F31" s="149">
+      <c r="F31" s="148">
         <f>1076532-1031253</f>
         <v>45279</v>
       </c>
-      <c r="G31" s="149">
+      <c r="G31" s="148">
         <f>1025232-938998</f>
         <v>86234</v>
       </c>
-      <c r="H31" s="149">
+      <c r="H31" s="148">
         <f>862237-818965</f>
         <v>43272</v>
       </c>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148">
         <v>166609</v>
       </c>
-      <c r="D32" s="149">
+      <c r="D32" s="148">
         <v>155953</v>
       </c>
-      <c r="E32" s="149">
+      <c r="E32" s="148">
         <v>146734</v>
       </c>
-      <c r="F32" s="149">
+      <c r="F32" s="148">
         <v>136713</v>
       </c>
-      <c r="G32" s="149">
+      <c r="G32" s="148">
         <v>123170</v>
       </c>
-      <c r="H32" s="149">
+      <c r="H32" s="148">
         <v>92730</v>
       </c>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="B33" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="148">
         <f>30952+11624+2054</f>
         <v>44630</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <f>69532+10802+4734</f>
         <v>85068</v>
       </c>
-      <c r="E33" s="149">
+      <c r="E33" s="148">
         <f>123181+5449+43950+3022</f>
         <v>175602</v>
       </c>
-      <c r="F33" s="149">
+      <c r="F33" s="148">
         <f>100209+6209+11785</f>
         <v>118203</v>
       </c>
-      <c r="G33" s="149">
+      <c r="G33" s="148">
         <f>86119+5245+98127+229</f>
         <v>189720</v>
       </c>
-      <c r="H33" s="149">
+      <c r="H33" s="148">
         <f>96084+7343+8926+7165+7582</f>
         <v>127100</v>
       </c>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
         <v>2029643</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>6779185</v>
+      </c>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>6779185</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>709320</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.0686+0.0906+0.2139</f>
         <v>0.37309999999999999</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.0758+0.0564</f>
         <v>0.13220000000000001</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1037878690318515</v>
-      </c>
-      <c r="D45" s="151">
+        <v>0.1037651981237448</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6775010147442423E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>3.676697719635235E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <f>267255+2247155</f>
@@ -3573,21 +3568,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>170507</v>
@@ -3596,11 +3591,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>890582</v>
@@ -3608,32 +3603,32 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59">
         <v>14672</v>
@@ -3641,11 +3636,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <f>566307+91401</f>
@@ -3655,58 +3650,58 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <f>204633+92615</f>
@@ -3716,44 +3711,44 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59">
         <v>21963</v>
@@ -3761,11 +3756,11 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <f>3000+44523</f>
@@ -3774,13 +3769,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <f>6509+2031204</f>
@@ -3789,26 +3784,26 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <f>538274+108026</f>
@@ -3818,22 +3813,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>306381</v>
@@ -3841,11 +3836,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>99594</v>
@@ -3854,24 +3849,24 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <f>1091455+12772</f>
         <v>1104227</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>200000</v>
@@ -3879,7 +3874,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>22844</v>
@@ -3887,35 +3882,35 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59">
         <v>29863</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>1148286</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>31686</v>
@@ -3923,77 +3918,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214">
+        <v>263</v>
+      </c>
+      <c r="C82" s="212">
         <v>881357</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214">
+        <v>264</v>
+      </c>
+      <c r="C83" s="212">
         <v>6069865</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>275</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4002,166 +3997,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>2628029</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>2628029</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>2628029</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>880541</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.33505756595532243</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>880541.00000000012</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>880541.00000000012</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>387038</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.14727310847787448</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>387038</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>387038</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>7392</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>7392</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>121979</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>4.6414632410829562E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*2%</f>
         <v>52560.58</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*1%</f>
         <v>26280.29</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>96014</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>96014.000000000015</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>246234.66666666666</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>9.3695566779006881E-2</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>246234.66666666669</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.37309999999999999</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.15920000000000001</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>0.0686+0.0906</f>
         <v>0.15920000000000001</v>
       </c>
@@ -4174,32 +4169,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4258,13 +4253,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4275,82 +4270,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1448.HK : 福壽園</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1448.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="130">
         <v>3.84</v>
       </c>
-      <c r="H3" s="133" t="s">
-        <v>276</v>
+      <c r="H3" s="132" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>福壽園</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>2319863422</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
         <v>8908.2755404799991</v>
       </c>
-      <c r="H5" s="287"/>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4361,31 +4356,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0015</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4394,280 +4389,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.18356509301826862</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.68906612775274989</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.29834036945664055</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.4239737587877962</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2301656201859503</v>
+        <v>1.230434390180472</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.294090816112531</v>
+        <v>11.296558380379459</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.50016774928512098</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>4.6534604450711926E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4285791342457137E-2</v>
+        <v>4.427611777351962E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4535747294752417</v>
-      </c>
-      <c r="D29" s="128">
+        <v>2.4528275722847517</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>4.4374312177454396</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>4.4360904724517667</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8865585052649907</v>
-      </c>
-      <c r="G29" s="286">
+        <v>2.8856794968055901</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.8586358415177742</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>3.8574699760450151</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4675,9 +4670,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4685,17 +4680,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>Strongly agree</v>
       </c>
@@ -4703,26 +4698,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4730,9 +4725,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -4745,16 +4740,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5706,10 +5701,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5735,59 +5730,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84">
         <f>H14</f>
         <v>563840</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5795,19 +5790,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>0.12021712633943271</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5856,928 +5851,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>2628029</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2171626</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>2325848</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1892537</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>1850574</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>1651299</v>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.21016648354735112</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>-6.6307858467105296E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.22895774296618776</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>2.2675667117337595E-2</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>0.12067772099419916</v>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>880541</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>804372</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>867634</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>664315</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>684917</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>643444</v>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1747488</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>1367254</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>1458214</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>1228222</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>1165657</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>1007855</v>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>387038</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>352724</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>388363</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>306191</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>300880</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>274323</v>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>246234.66666666666</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>202844</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>226148</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>182988</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>208986.66666666666</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>169692</v>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.4239737587877962</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.37376877970700295</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.3627507042592637</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.39050385804874621</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>0.35437131037901398</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>0.34145239596220917</v>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>811686</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>843703</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>739043</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>655790.33333333337</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>563840</v>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.37271720016525262</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-3.7948187928690549E-2</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>0.14161557581899836</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>0.12695012786098803</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>0.16307876939084381</v>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>96014</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>41751</v>
       </c>
-      <c r="E16" s="198">
+      <c r="E16" s="196">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>42703</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="196">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>45279</v>
       </c>
-      <c r="G16" s="198">
+      <c r="G16" s="196">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>86234</v>
       </c>
-      <c r="H16" s="198">
+      <c r="H16" s="196">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>43272</v>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>7392</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5008</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>7246</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>9525</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>11128</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>8293</v>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>6.3396941205747723E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>7.1813931128104011E-2</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="150">
         <f t="shared" si="6"/>
         <v>6.3088387547251587E-2</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="150">
         <f t="shared" si="6"/>
         <v>7.223795360407749E-2</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="150">
         <f t="shared" si="6"/>
         <v>6.6557727494280156E-2</v>
       </c>
-      <c r="H18" s="151">
+      <c r="H18" s="150">
         <f t="shared" si="6"/>
         <v>5.6155790077993144E-2</v>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>166609</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>155953</v>
       </c>
-      <c r="E19" s="198">
+      <c r="E19" s="196">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>146734</v>
       </c>
-      <c r="F19" s="198">
+      <c r="F19" s="196">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>136713</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="196">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>123170</v>
       </c>
-      <c r="H19" s="198">
+      <c r="H19" s="196">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>92730</v>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>1.6982308794918168E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>3.9172491027460531E-2</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>7.5500204656538172E-2</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>6.2457431479543066E-2</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0.10251954258516546</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>7.6969706879250824E-2</v>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>44630</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>85068</v>
       </c>
-      <c r="E21" s="198">
+      <c r="E21" s="196">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>175602</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="196">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>118203</v>
       </c>
-      <c r="G21" s="198">
+      <c r="G21" s="196">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>189720</v>
       </c>
-      <c r="H21" s="198">
+      <c r="H21" s="196">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>127100</v>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>888830.33333333326</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>694042</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>764886</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>665729</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>491878.33333333337</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>477905</v>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.2536588256826694</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.2396966604746858</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>0.2466474593352618</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>0.26382403620114164</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>0.19934828328940102</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>0.21705866109045061</v>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>666622.75</v>
       </c>
@@ -6821,63 +6816,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.28065784683539807</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-9.2620338194188412E-2</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>0.14894499113002438</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>0.35344241631568785</v>
       </c>
-      <c r="G25" s="230">
+      <c r="G25" s="228">
         <f t="shared" si="10"/>
         <v>2.9238725967155259E-2</v>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6923,11 +6918,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6974,266 +6969,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>170507</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>657708</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>2029643</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>252707</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>31686</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7280,165 +7275,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>6779185</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>709320</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7484,63 +7479,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.36878037823243809</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7553,372 +7548,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.33505756595532243</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.37040079645390134</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.37303985471105594</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.3510182363673735</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.37011057109848078</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.38965929247216891</v>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14727310847787448</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.16242391645706949</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.16697694776270849</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.16178864666846671</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.16258739180384033</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>0.16612557749989554</v>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>1.9225686190900274E-2</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>1.8360185188370005E-2</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>2.3925027621652838E-2</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>4.6598514839179629E-2</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>2.6204824202037305E-2</v>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>2.3061061158781483E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>3.115422847924714E-3</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>5.0329267010367565E-3</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>6.0132693964143015E-3</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>5.022106838313352E-3</v>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.3695566779006881E-2</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>9.3406507382026188E-2</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>9.7232493266971878E-2</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>9.6689258915413537E-2</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>0.11293072671866494</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>0.10276273406572643</v>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>4.6414632410829562E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>3.264144010064348E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>1.2411817109286591E-2</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>9.7805221245344208E-3</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>3.5961815090885314E-2</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>2.0813916801257677E-2</v>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.33821176757689253</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.31959554729958106</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>0.32886327911368241</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>0.35176538160152221</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>0.26579771105253469</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>0.28941154812060083</v>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7930,216 +7925,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.29834036945664055</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="F48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="e">
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="269" t="e">
+      <c r="H48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>6.4880182068006095E-2</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.25026664469836518</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.21037109747306657</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>-0.27072013072064943</v>
       </c>
-      <c r="E51" s="152">
+      <c r="E51" s="151">
         <f t="shared" si="44"/>
         <v>9.8550463754670428E-2</v>
       </c>
-      <c r="F51" s="152">
+      <c r="F51" s="151">
         <f t="shared" si="44"/>
         <v>1.0790219955675238</v>
       </c>
-      <c r="G51" s="152">
+      <c r="G51" s="151">
         <f t="shared" si="44"/>
         <v>0.43273867770668673</v>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8155,350 +8150,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.68906612775274989</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>3.1253593911711373</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>8.3165478525897892E-3</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>7.2157016434163928E-3</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>9.4733071333505912E-3</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>1.4307623672695646E-2</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>2.2623480738800581E-2</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="151">
         <f t="shared" si="47"/>
         <v>1.7352821167386824E-2</v>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.18356509301826865</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="e">
+      <c r="H58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>0.14643329519409959</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="e">
+      <c r="H59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9777,7 +9772,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9795,7 +9790,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9813,25 +9808,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>6779185</v>
       </c>
@@ -9839,12 +9834,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>6069865</v>
       </c>
@@ -9852,28 +9847,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>709320</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9886,25 +9881,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>918383.27228970232</v>
+        <v>918192.62835718819</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.86452895557656229</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>0.86455707753112088</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>3.1265477415905099</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9912,297 +9907,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.42287705171549705</v>
+        <v>0.42269691617137811</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>3.1137704369817274</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>2514410</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>2262969</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>200000</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>22844</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>170507</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>102304.2</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>29863</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>890582</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>534349.19999999995</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>252707</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>14672</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>1467.2</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>657708</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>328854</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10213,21 +10208,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10240,45 +10235,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10286,17 +10281,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10306,19 +10301,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.81096999327925989</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>2899622.4000000004</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.89773158887356419</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10328,17 +10323,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.1</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>1467.2</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>4.54249417853612E-4</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10347,7 +10342,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10357,17 +10352,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>328854</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.10181416170858214</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10380,7 +10375,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10390,17 +10385,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10427,12 +10422,12 @@
         <f>SUM(E24:E27)</f>
         <v>3229943.6000000006</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>1148286</v>
       </c>
@@ -10442,171 +10437,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>297248</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>31686</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>21963</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>8785.2000000000007</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>31686</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>47523</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>4752.3</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10614,25 +10609,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>2037713</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>407542.60000000003</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10640,26 +10635,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10667,113 +10662,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>646300</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>64630</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>306381</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>15319.050000000001</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>99594</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>89634.6</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>1104227</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10781,17 +10776,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10801,16 +10796,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10820,16 +10815,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.19482341766686814</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>13537.5</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10839,14 +10834,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.17592038488636233</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>472172.60000000003</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10859,7 +10854,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10869,14 +10864,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>6.949643160318951E-2</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>104953.65000000001</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10889,13 +10884,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>4560949</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.12950457240368177</v>
       </c>
@@ -10903,12 +10898,12 @@
         <f>SUM(E30:E42)</f>
         <v>590663.75</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>881357</v>
       </c>
@@ -10919,109 +10914,109 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>8808828</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.43372482128155987</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>3820607.3500000006</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>2029643</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>709320</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2301656201859503</v>
-      </c>
-      <c r="E53" s="88">
+        <v>1.230434390180472</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>872581.07771029824</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>872771.72164281236</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>284393</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11029,61 +11024,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11097,35 +11092,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>946644.10000000009</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>2811658</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.80485215484955852</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>2262969</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11139,29 +11134,29 @@
         <f>E61+E62</f>
         <v>3209613.1</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>284393</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11175,9 +11170,9 @@
         <f>E63-E64</f>
         <v>2925220.1</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11185,28 +11180,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11220,29 +11215,29 @@
         <f>E49-E63</f>
         <v>610994.25000000047</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>1745250</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11256,29 +11251,29 @@
         <f>E68-E69</f>
         <v>-1134255.7499999995</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11288,66 +11283,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>2628029</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>2628029</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>2628029</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>880541</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.33505756595532243</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>880541.00000000012</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.33505756595532243</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>880541.00000000012</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.33505756595532243</v>
       </c>
@@ -11355,50 +11350,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>1747488</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>1747488</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>1747488</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>387038</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.14727310847787448</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>387038</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.14727310847787448</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>387038</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.14727310847787448</v>
       </c>
@@ -11406,60 +11401,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>246234.66666666666</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>9.3695566779006881E-2</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>246234.66666666669</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>9.3695566779006881E-2</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>246234.66666666669</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>9.3695566779006881E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.4239737587877962</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.4239737587877962</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1114215.3333333333</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.4239737587877962</v>
       </c>
@@ -11467,61 +11462,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>96014</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>96014.000000000015</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>96014.000000000015</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>3.6534604450711924E-2</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>7392</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>7392</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.8127543493622026E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>7392</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.8127543493622026E-3</v>
       </c>
@@ -11529,59 +11524,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>121979</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>4.6414632410829562E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>52560.58</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0.02</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>26280.29</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0.01</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>888830.33333333326</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.33821176757689253</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>958248.75333333318</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.36462639998772206</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>984529.04333333322</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.37462639998772207</v>
       </c>
@@ -11589,184 +11584,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>666622.75</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.2536588256826694</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>718686.56499999994</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.27346979999079157</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>738396.78249999997</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.28096979999079158</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.28735430873999096</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.30979692950217136</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.31829321308209324</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9935382903362107E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>7.9917922214196982E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6178405643637337E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>8.6159581259503112E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8541877011770284E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>8.8522536362655391E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.37309999999999999</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.2983970960310012</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.15920000000000001</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.51388501576121715</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.15920000000000001</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.50016774928512098</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1037878690318515</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>0.1037651981237448</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4285791342457137E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>4.427611777351962E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4285791342457137E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>4.427611777351962E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11774,55 +11769,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5517850239141948</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>7.5494812211241005</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8436782922543671</v>
+        <v>7.8412683228800857</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1879139943246289</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>3.1870700235937219</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1879139943246289</v>
+        <v>3.1870700235937219</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11832,123 +11827,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9046758.3168324437</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>9043978.7012404036</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7545718238641772</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>3.7534264267142272</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8996943660730921</v>
-      </c>
-      <c r="I97" s="122">
+        <v>3.8984961853674176</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1864575247608959</v>
+        <v>5.1848639862028412</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="91">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>-932091.10038644366</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>-0.40178705847384305</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1913108.1046644277</v>
-      </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+        <v>1912690.214804624</v>
+      </c>
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70096449366093916</v>
-      </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+        <v>0.70081137844843799</v>
+      </c>
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82466411018934016</v>
-      </c>
-      <c r="I99" s="213"/>
+        <v>0.82448397464522116</v>
+      </c>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>10027775.321110427</v>
-      </c>
-      <c r="D100" s="109">
+        <v>10024577.815658584</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5599362876569414</v>
-      </c>
-      <c r="E100" s="109">
+        <v>3.5587986354967382</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0537492590512727</v>
-      </c>
-      <c r="F100" s="109">
+        <v>4.0524507466888222</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.1881603384199311</v>
-      </c>
-      <c r="H100" s="109">
+        <v>4.1868219241138096</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3225714177885894</v>
-      </c>
-      <c r="I100" s="109">
+        <v>4.3211931015387961</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.6093345764763924</v>
+        <v>5.6075609023742192</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11958,58 +11953,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3676883.009082953</v>
-      </c>
-      <c r="D103" s="109">
+        <v>3675909.5883300216</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3472131712935425</v>
-      </c>
-      <c r="E103" s="122">
+        <v>1.3468565090727649</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5849566721100501</v>
-      </c>
-      <c r="F103" s="109">
+        <v>1.5845370694973704</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.5849566721100501</v>
-      </c>
-      <c r="H103" s="122">
+        <v>1.5845370694973704</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5849566721100501</v>
-      </c>
-      <c r="I103" s="109">
+        <v>1.5845370694973704</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1079371065591563</v>
+        <v>2.1073790497158109</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12019,58 +12014,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6540513.8185578017</v>
-      </c>
-      <c r="D106" s="109">
+        <v>6538520.9225150039</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.4535747294752417</v>
-      </c>
-      <c r="E106" s="122">
+        <v>2.4528275722847517</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.8193529655806615</v>
-      </c>
-      <c r="F106" s="109">
+        <v>2.8184939080930964</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.8865585052649907</v>
-      </c>
-      <c r="H106" s="122">
+        <v>2.8856794968055901</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.9537640449493199</v>
-      </c>
-      <c r="I106" s="122">
+        <v>2.9528650855180834</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.8586358415177742</v>
+        <v>3.8574699760450151</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12079,15 +12074,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFEEBA4-FDA2-4AFE-AFA8-588789E6E803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5122DDF-F5CF-41EF-A608-2A0C2D5D4EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="278">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1695,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2339,9 +2347,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2350,9 +2355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2360,6 +2362,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2837,7 +2851,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2845,7 +2859,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2878,7 +2892,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2894,7 +2908,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2937,6 +2951,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -2952,7 +2969,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2961,7 +2978,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2970,7 +2987,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2979,7 +2996,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3499,11 +3516,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1037651981237448</v>
+        <v>0.10316978830027046</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.676697719635235E-2</v>
+        <v>3.6556006468227709E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3969,7 +3986,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3979,11 +3996,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3997,10 +4014,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4222,8 +4239,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4236,8 +4256,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4280,60 +4300,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1448.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>福壽園</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>2319863422</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>8908.2755404799991</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>8954.6728089200005</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4356,11 +4376,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4380,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4501,7 +4521,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.18356509301826862</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4513,20 +4533,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.68906612775274989</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.4239737587877962</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.29834036945664055</v>
       </c>
@@ -4535,26 +4555,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.4239737587877962</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.4512395250965218</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.230434390180472</v>
+        <v>1.2375354294975427</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.8127543493622026E-3</v>
       </c>
@@ -4563,7 +4583,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.296558380379459</v>
+        <v>11.361752677488543</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4595,7 +4615,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.427611777351962E-2</v>
+        <v>4.4022059226489031E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4614,10 +4634,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4625,22 +4645,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4528275722847517</v>
+        <v>2.4459091465875176</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>4.4360904724517667</v>
+        <v>4.423857449687981</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8856794968055901</v>
-      </c>
-      <c r="G29" s="285">
+        <v>2.8775401724559031</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.8574699760450151</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>3.8468325649460704</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5671,7 +5691,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7912,7 +7932,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9839,7 +9859,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>6069865</v>
       </c>
@@ -9884,11 +9904,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>918192.62835718819</v>
+        <v>913155.71914880362</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.86455707753112088</v>
+        <v>0.86530007380698359</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -9910,7 +9930,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.42269691617137811</v>
+        <v>0.42014289264926086</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10886,7 +10906,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>4560949</v>
       </c>
@@ -10903,7 +10923,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>881357</v>
       </c>
@@ -10976,11 +10996,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.230434390180472</v>
+        <v>1.2375354294975427</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>872771.72164281236</v>
+        <v>877808.63085119694</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11012,11 +11032,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>284393</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11027,11 +11047,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -11043,11 +11063,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11261,19 +11281,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11283,18 +11303,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11661,17 +11681,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9917922214196982E-2</v>
+        <v>7.9459349235795826E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6159581259503112E-2</v>
+        <v>8.566519333372509E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8522536362655391E-2</v>
+        <v>8.8014589683978656E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11712,17 +11732,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1037651981237448</v>
+        <v>0.10316978830027046</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.427611777351962E-2</v>
+        <v>4.4022059226489031E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.427611777351962E-2</v>
+        <v>4.4022059226489031E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11753,15 +11773,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11782,14 +11802,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5494812211241005</v>
+        <v>7.5281002488554627</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8412683228800857</v>
+        <v>7.8186124371549504</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11810,14 +11830,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1870700235937219</v>
+        <v>3.1814137287050603</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1870700235937219</v>
+        <v>3.1814137287050603</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11860,21 +11880,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9043978.7012404036</v>
+        <v>9017847.8076759055</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7534264267142272</v>
+        <v>3.7427963047242025</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8984961853674176</v>
+        <v>3.8872322060673037</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1848639862028412</v>
+        <v>5.1698832865079938</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11884,14 +11904,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-932091.10038644366</v>
+        <v>-936945.74153428955</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40178705847384305</v>
+        <v>-0.4038796994033943</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11902,17 +11922,17 @@
       </c>
       <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1912690.214804624</v>
+        <v>1911619.8702045826</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70081137844843799</v>
+        <v>0.70041920324475682</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82448397464522116</v>
+        <v>0.82402259205265516</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11923,27 +11943,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>10024577.815658584</v>
+        <v>9992521.9363461975</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5587986354967382</v>
+        <v>3.5473521355949051</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0524507466888222</v>
+        <v>4.0393358085655651</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.1868219241138096</v>
+        <v>4.1733554536410651</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3211931015387961</v>
+        <v>4.3073750987165642</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.6075609023742192</v>
+        <v>5.5900261791572543</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11984,27 +12004,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3675909.5883300216</v>
+        <v>3669385.7189259194</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3468565090727649</v>
+        <v>1.34446615758013</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5845370694973704</v>
+        <v>1.5817248912707411</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.5845370694973704</v>
+        <v>1.5817248912707411</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5845370694973704</v>
+        <v>1.5817248912707411</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1073790497158109</v>
+        <v>2.103638950734886</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12045,27 +12065,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6538520.9225150039</v>
+        <v>6520046.5551959835</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.4528275722847517</v>
+        <v>2.4459091465875176</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.8184939080930964</v>
+        <v>2.8105303499181531</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.8856794968055901</v>
+        <v>2.8775401724559031</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.9528650855180834</v>
+        <v>2.9445499949936527</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.8574699760450151</v>
+        <v>3.8468325649460704</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5122DDF-F5CF-41EF-A608-2A0C2D5D4EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07793743-D517-4458-9C6F-0066A60348AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3516,11 +3516,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10316978830027046</v>
+        <v>0.10381252900323627</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6556006468227709E-2</v>
+        <v>3.6783747880535615E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>3.86</v>
+        <v>3.83</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>277</v>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>8954.6728089200005</v>
+        <v>8885.0769062600011</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4400,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2375354294975427</v>
+        <v>1.2298734025771163</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.361752677488543</v>
+        <v>11.291407980437333</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4022059226489031E-2</v>
+        <v>4.4296313635259217E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4645,20 +4645,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4459091465875176</v>
+        <v>2.4479959042985788</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>4.423857449687981</v>
+        <v>4.4273301693799247</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8775401724559031</v>
+        <v>2.87999518152774</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.8468325649460704</v>
+        <v>3.8498523211999345</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9810,7 +9810,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9904,11 +9904,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>913155.71914880362</v>
+        <v>918590.54808400047</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.86530007380698359</v>
+        <v>0.86449838025013326</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -9930,7 +9930,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.42014289264926086</v>
+        <v>0.42197123911657952</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10996,11 +10996,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2375354294975427</v>
+        <v>1.2298734025771163</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>877808.63085119694</v>
+        <v>872373.80191600008</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11681,17 +11681,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9459349235795826E-2</v>
+        <v>7.9954375530086372E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.566519333372509E-2</v>
+        <v>8.619888161098288E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8014589683978656E-2</v>
+        <v>8.8562914539314044E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11732,17 +11732,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10316978830027046</v>
+        <v>0.10381252900323627</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4022059226489031E-2</v>
+        <v>4.4296313635259217E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4022059226489031E-2</v>
+        <v>4.4296313635259217E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11802,14 +11802,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5281002488554627</v>
+        <v>7.5346186964557411</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8186124371549504</v>
+        <v>7.8258670322943411</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11830,14 +11830,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1814137287050603</v>
+        <v>3.1805278412044649</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1814137287050603</v>
+        <v>3.1805278412044649</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11880,21 +11880,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9017847.8076759055</v>
+        <v>9026215.1280155666</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7427963047242025</v>
+        <v>3.746037125221322</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8872322060673037</v>
+        <v>3.890839021994617</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1698832865079938</v>
+        <v>5.1746802259218585</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11904,14 +11904,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-936945.74153428955</v>
+        <v>-929663.7798125206</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.4038796994033943</v>
+        <v>-0.4007407380090674</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11921,18 +11921,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1911619.8702045826</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>1908579.4225750891</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0.70041920324475682</v>
+        <v>0.69930518055679991</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82402259205265516</v>
+        <v>0.82271197712564703</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11943,27 +11943,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>9992521.9363461975</v>
+        <v>10005130.770778134</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5473521355949051</v>
+        <v>3.5519000272741073</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0393358085655651</v>
+        <v>4.0446015677690541</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.1733554536410651</v>
+        <v>4.1787059144401262</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3073750987165642</v>
+        <v>4.3128102611111974</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.5900261791572543</v>
+        <v>5.5966514650384385</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12004,27 +12004,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3669385.7189259194</v>
+        <v>3668363.9521201975</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.34446615758013</v>
+        <v>1.3440917813230506</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5817248912707411</v>
+        <v>1.5812844486153537</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.5817248912707411</v>
+        <v>1.5812844486153537</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5817248912707411</v>
+        <v>1.5812844486153537</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.103638950734886</v>
+        <v>2.10305317736143</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12065,27 +12065,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6520046.5551959835</v>
+        <v>6525643.5928757405</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.4459091465875176</v>
+        <v>2.4479959042985788</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.8105303499181531</v>
+        <v>2.812943008192204</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.8775401724559031</v>
+        <v>2.87999518152774</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.9445499949936527</v>
+        <v>2.9470473548632756</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.8468325649460704</v>
+        <v>3.8498523211999345</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A0A0FD1-430E-4B0A-A972-032A1E9D5C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D77D025-FEAE-4F74-BCEA-7378E9730485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3729,11 +3729,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10204170037868601</v>
+        <v>0.1020353051445478</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6156292656291319E-2</v>
+        <v>3.6154026641943775E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4613,7 +4613,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4744,7 +4744,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2512165889193099</v>
+        <v>1.2512950110206837</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.487358737716267</v>
+        <v>11.488078727220422</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3540709462039168E-2</v>
+        <v>4.353798064597162E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4863,20 +4863,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6856945086795512</v>
+        <v>2.2942238037116325</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>4.3426218517979036</v>
+        <v>4.1752714165524303</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.159640598446531</v>
+        <v>2.6990868278960383</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.7761929146068729</v>
+        <v>3.6306707970021139</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10109,11 +10109,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>903451.3991477557</v>
+        <v>903395.77278280922</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.86673156151546893</v>
+        <v>0.86673976698042476</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10135,7 +10135,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.41432812695728888</v>
+        <v>0.41427665089410226</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11201,11 +11201,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2512165889193099</v>
+        <v>1.2512950110206837</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>887512.95085224486</v>
+        <v>887568.57721719134</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82134678775501013</v>
+        <v>0.82129531169182357</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>0.86675803296723908</v>
+        <v>0.89836232599207666</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.56990747626678018</v>
+        <v>0.44664484835171869</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11913,17 +11913,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8590518024579448E-2</v>
+        <v>7.8585592540567073E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4728505651293182E-2</v>
+        <v>8.4723195482707098E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7052213031070025E-2</v>
+        <v>8.7046757229348584E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11964,17 +11964,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10204170037868601</v>
+        <v>0.1020353051445478</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3540709462039168E-2</v>
+        <v>4.353798064597162E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3540709462039168E-2</v>
+        <v>4.353798064597162E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12027,21 +12027,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3497470511574683</v>
+        <v>7.470689421149328</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5659073232833407</v>
+        <v>7.7581369157233704</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12062,14 +12062,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9052760758778229</v>
+        <v>3.1635397963642351</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9052760758778229</v>
+        <v>3.1635397963642351</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12112,21 +12112,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10015292.664766636</v>
+        <v>8948096.4224085882</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.1750617579731868</v>
+        <v>3.7142529768344938</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3171906457028637</v>
+        <v>3.8571651837564893</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1227761635598554</v>
+        <v>5.1298951952699339</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>1905412.3696900455</v>
+        <v>1905292.9522539503</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.56990747626678018</v>
+        <v>0.44664484835171869</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>0.56990747626678018</v>
+        <v>0.44664484835171869</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12176,23 +12176,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7476627647110212</v>
+        <v>3.2515349776720659</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3379505734422459</v>
+        <v>3.7538791643884912</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.4090150173070839</v>
+        <v>3.8253352678494892</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.4800794611719228</v>
+        <v>3.8967913713104867</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.2856649790289145</v>
+        <v>5.1695213828239313</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12231,23 +12231,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6237262526480809</v>
+        <v>1.3369126297511991</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9102661795859777</v>
+        <v>1.5728383879425871</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.9102661795859777</v>
+        <v>1.5728383879425871</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9102661795859777</v>
+        <v>1.5728383879425871</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2667208501848317</v>
+        <v>2.0918202111802966</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12286,23 +12286,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.6856945086795512</v>
+        <v>2.2942238037116325</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.124108376514112</v>
+        <v>2.6633587761655391</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.159640598446531</v>
+        <v>2.6990868278960383</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.19517282037895</v>
+        <v>2.734814879626537</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.7761929146068729</v>
+        <v>3.6306707970021139</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D77D025-FEAE-4F74-BCEA-7378E9730485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9CDA70E-AC2C-4463-8067-DC9425CFDA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2591,6 +2591,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2607,9 +2610,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2823,11 +2823,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3042,7 +3042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3067,6 +3067,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4428,7 +4429,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4451,6 +4452,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4469,8 +4473,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4506,18 +4510,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1448.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4533,7 +4540,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>福壽園</v>
       </c>
@@ -4562,11 +4569,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>9024.2687115799999</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4589,11 +4596,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4661,10 +4668,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4711,7 +4718,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4852,10 +4859,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4863,22 +4870,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.2942238037116325</v>
+        <v>2.51066926446381</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>4.1752714165524303</v>
+        <v>4.6922144594875714</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.6990868278960383</v>
-      </c>
-      <c r="G29" s="312">
+        <v>2.9537285464280121</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.6306707970021139</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>4.0801864865109323</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5860,15 +5867,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5896,7 +5904,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -12023,7 +12031,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -12034,14 +12042,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.470689421149328</v>
+        <v>8.1807136223329397</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7581369157233704</v>
+        <v>8.4954805068871604</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12062,14 +12070,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1635397963642351</v>
+        <v>3.4642068018038104</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1635397963642351</v>
+        <v>3.4642068018038104</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12112,21 +12120,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8948096.4224085882</v>
+        <v>9798535.3385879155</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7142529768344938</v>
+        <v>4.067260491161738</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8571651837564893</v>
+        <v>4.2237552632044197</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1298951952699339</v>
+        <v>5.768515868067456</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12176,23 +12184,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2515349776720659</v>
+        <v>3.5573639550265144</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.7538791643884912</v>
+        <v>4.1068866787157354</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.8253352678494892</v>
+        <v>4.1851340647370758</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>3.8967913713104867</v>
+        <v>4.2633814507584171</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.1695213828239313</v>
+        <v>5.8081420556214534</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12231,23 +12239,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3369126297511991</v>
+        <v>1.4639745739011061</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5728383879425871</v>
+        <v>1.7223230281189483</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.5728383879425871</v>
+        <v>1.7223230281189483</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5728383879425871</v>
+        <v>1.7223230281189483</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0918202111802966</v>
+        <v>2.3522309174004108</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12286,23 +12294,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.2942238037116325</v>
+        <v>2.51066926446381</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.6633587761655391</v>
+        <v>2.9146048534173419</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.6990868278960383</v>
+        <v>2.9537285464280121</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.734814879626537</v>
+        <v>2.9928522394386827</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.6306707970021139</v>
+        <v>4.0801864865109323</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9CDA70E-AC2C-4463-8067-DC9425CFDA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34EC4C0-6EF3-40BF-8372-3911F294F692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2591,31 +2591,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3730,11 +3730,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1020353051445478</v>
+        <v>0.10177367615699767</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6154026641943775E-2</v>
+        <v>3.6061324009528536E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4510,27 +4510,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1448.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4540,40 +4540,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>福壽園</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>2319863422</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>9024.2687115799999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>9047.4673457999997</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4596,11 +4596,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4751,7 +4751,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2512950110206837</v>
+        <v>1.2545117077071122</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.488078727220422</v>
+        <v>11.517611063280116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.353798064597162E-2</v>
+        <v>4.3426344798161438E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4859,10 +4859,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4870,22 +4870,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.51066926446381</v>
+        <v>2.7116268700507762</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>4.6922144594875714</v>
+        <v>4.7495096934500856</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.9537285464280121</v>
-      </c>
-      <c r="G29" s="313">
+        <v>3.1901492588832663</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.0801864865109323</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>4.1300084290870309</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5868,15 +5868,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10117,11 +10117,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>903395.77278280922</v>
+        <v>901114.10548919172</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.86673976698042476</v>
+        <v>0.86707633653762339</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10143,7 +10143,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.41427665089410226</v>
+        <v>0.41323033042932666</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11209,11 +11209,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2512950110206837</v>
+        <v>1.2545117077071122</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>887568.57721719134</v>
+        <v>889850.24451080884</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11249,7 +11249,7 @@
         <f>I15+I34</f>
         <v>284393</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11260,11 +11260,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11276,11 +11276,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>0.89836232599207666</v>
+        <v>0.88239104802286283</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11410,7 +11410,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.44664484835171869</v>
+        <v>0.50450994558930995</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11921,17 +11921,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8585592540567073E-2</v>
+        <v>7.8384091021232297E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4723195482707098E-2</v>
+        <v>8.4505956519930925E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7046757229348584E-2</v>
+        <v>8.6823560415939999E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11972,17 +11972,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1020353051445478</v>
+        <v>0.10177367615699767</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.353798064597162E-2</v>
+        <v>4.3426344798161438E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.353798064597162E-2</v>
+        <v>4.3426344798161438E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12035,21 +12035,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1807136223329397</v>
+        <v>7.5357124979444947</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.4954805068871604</v>
+        <v>7.8087766640325125</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12070,14 +12070,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4642068018038104</v>
+        <v>3.3182545580622715</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4642068018038104</v>
+        <v>3.3182545580622715</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12120,21 +12120,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9798535.3385879155</v>
+        <v>10357478.913214985</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.067260491161738</v>
+        <v>4.3085680785557496</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2237552632044197</v>
+        <v>4.4646934017717292</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.768515868067456</v>
+        <v>5.7290672082633867</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12144,14 +12144,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-944227.70325605874</v>
+        <v>-946655.0238299818</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.4070186607977212</v>
+        <v>-0.40806498126249685</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12167,12 +12167,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.44664484835171869</v>
+        <v>0.50450994558930995</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>0.44664484835171869</v>
+        <v>0.50450994558930995</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12184,23 +12184,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5573639550265144</v>
+        <v>3.8106143488169697</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1068866787157354</v>
+        <v>4.4050130428825627</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.1851340647370758</v>
+        <v>4.4830757044905525</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.2633814507584171</v>
+        <v>4.5611383660985423</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8081420556214534</v>
+        <v>5.8255121725901997</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12239,23 +12239,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4639745739011061</v>
+        <v>1.6126393912845831</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7223230281189483</v>
+        <v>1.8972228132759803</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.7223230281189483</v>
+        <v>1.8972228132759803</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7223230281189483</v>
+        <v>1.8972228132759803</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.3522309174004108</v>
+        <v>2.4345046855838626</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12294,23 +12294,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.51066926446381</v>
+        <v>2.7116268700507762</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.9146048534173419</v>
+        <v>3.1511179280792714</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.9537285464280121</v>
+        <v>3.1901492588832663</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.9928522394386827</v>
+        <v>3.2291805896872612</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.0801864865109323</v>
+        <v>4.1300084290870309</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD9391D-C4A5-4F55-BF81-D678E09AC891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD37034-2FCE-4958-A053-A7E6496CA8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2604,6 +2604,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2620,9 +2623,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3761,11 +3761,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10177049054039849</v>
+        <v>0.10478377318738735</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6060195254464439E-2</v>
+        <v>3.7127887470845916E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4546,27 +4546,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1448.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>3.9</v>
+        <v>3.79</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4576,7 +4576,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>福壽園</v>
       </c>
@@ -4605,11 +4605,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>9047.4673457999997</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>8792.2823693799983</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4632,11 +4632,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2545509763919613</v>
+        <v>1.2184736662137485</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.517971587168635</v>
+        <v>11.186747554511793</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3424985510671241E-2</v>
+        <v>4.4710738921018685E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4895,10 +4895,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.733768371767078</v>
+        <v>2.7619708528932527</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>4.7971998682799839</v>
+        <v>4.8452781003080094</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.2161980844318565</v>
-      </c>
-      <c r="G29" s="313">
+        <v>3.2493774739920624</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.1714781463304211</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>4.2132853046156606</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5904,15 +5904,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10255,11 +10255,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>901086.25142565451</v>
+        <v>926676.60908126447</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>0.86708044530048167</v>
+        <v>0.86330560250512933</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10281,7 +10281,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.4132046230747673</v>
+        <v>0.42518092993786361</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11347,11 +11347,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2545509763919613</v>
+        <v>1.2184736662137485</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>889878.09857434605</v>
+        <v>864287.74091873609</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82126960433726426</v>
+        <v>0.82173638608782851</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>0.88236342831140391</v>
+        <v>0.88286493371660324</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.50449415392964103</v>
+        <v>0.50478089127274617</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12059,17 +12059,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8381637521752867E-2</v>
+        <v>8.0702408768238268E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.450331140001402E-2</v>
+        <v>8.7005336893874449E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6820842752731733E-2</v>
+        <v>8.9391487125914812E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12110,17 +12110,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10177049054039849</v>
+        <v>0.10478377318738735</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3424985510671241E-2</v>
+        <v>4.4710738921018685E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3424985510671241E-2</v>
+        <v>4.4710738921018685E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12180,14 +12180,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5981981324716559</v>
+        <v>7.6729180186498676</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8735245903726625</v>
+        <v>7.9527994507298834</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12208,14 +12208,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3457845147193614</v>
+        <v>3.3642173241140654</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3457845147193614</v>
+        <v>3.3642173241140654</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12258,21 +12258,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10443359.879030211</v>
+        <v>10548509.216733761</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.344294442899594</v>
+        <v>4.3870157803323284</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.5017132388021288</v>
+        <v>4.5470388975053035</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7872756206508731</v>
+        <v>5.8455450095897001</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12282,14 +12282,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-946655.02382998192</v>
+        <v>-919954.49751682847</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.40806498126249691</v>
+        <v>-0.39655545614996485</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12300,17 +12300,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>1905233.3147024319</v>
+        <v>1906316.1846116229</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.50449415392964103</v>
+        <v>0.50478089127274617</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>0.50449415392964103</v>
+        <v>0.50478089127274617</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12322,23 +12322,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8415180614903046</v>
+        <v>3.888964857935358</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4407236155667382</v>
+        <v>4.4952412154551098</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.5194330135180056</v>
+        <v>4.5752527740415978</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.598142411469273</v>
+        <v>4.6552643326280849</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8837047933180173</v>
+        <v>5.9537704447124815</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12377,23 +12377,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6260186820438511</v>
+        <v>1.6349768478511477</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9129631553457072</v>
+        <v>1.9235021739425269</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.9129631553457072</v>
+        <v>1.9235021739425269</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9129631553457072</v>
+        <v>1.9235021739425269</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.4592514993428249</v>
+        <v>2.4728001645188393</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12432,23 +12432,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.733768371767078</v>
+        <v>2.7619708528932527</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.1768433854562228</v>
+        <v>3.2093716946988184</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.2161980844318565</v>
+        <v>3.2493774739920624</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.2555527834074902</v>
+        <v>3.289383253285306</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>4.1714781463304211</v>
+        <v>4.2132853046156606</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1448.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1448.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD37034-2FCE-4958-A053-A7E6496CA8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD436F3-3B9E-465A-88D6-175418BCB809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2604,31 +2604,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3761,11 +3761,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10478377318738735</v>
+        <v>0.10790882308195116</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7127887470845916E-2</v>
+        <v>3.8235182019388747E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4546,27 +4546,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1448.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>3.79</v>
+        <v>3.67</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4576,40 +4576,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>福壽園</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>2319863422</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>8792.2823693799983</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>8513.8987587400006</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4632,11 +4632,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2184736662137485</v>
+        <v>1.1831865516537261</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.186747554511793</v>
+        <v>10.862778269449819</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4710738921018685E-2</v>
+        <v>4.6044182885678436E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4895,10 +4895,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7619708528932527</v>
+        <v>2.7816977125922366</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>4.8452781003080094</v>
+        <v>4.8785644254567844</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.2493774739920624</v>
-      </c>
-      <c r="G29" s="314">
+        <v>3.2725855442261613</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.2132853046156606</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>4.2422299351798127</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5904,15 +5904,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10255,11 +10255,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>926676.60908126447</v>
+        <v>951706.46518097958</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>0.86330560250512933</v>
+        <v>0.85961343949442603</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10281,7 +10281,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.42518092993786361</v>
+        <v>0.43545007871779934</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11347,11 +11347,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2184736662137485</v>
+        <v>1.1831865516537261</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>864287.74091873609</v>
+        <v>839257.88481902098</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11387,7 +11387,7 @@
         <f>I15+I34</f>
         <v>284393</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11398,11 +11398,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11414,11 +11414,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0.82173638608782851</v>
+        <v>0.8194496892904567</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>0.88286493371660324</v>
+        <v>0.88040813071916868</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.50478089127274617</v>
+        <v>0.50337620618518031</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12059,17 +12059,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0702408768238268E-2</v>
+        <v>8.3109260958617148E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7005336893874449E-2</v>
+        <v>8.9600166328012598E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9391487125914812E-2</v>
+        <v>9.2057480618229368E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12110,17 +12110,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10478377318738735</v>
+        <v>0.10790882308195116</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4710738921018685E-2</v>
+        <v>4.6044182885678436E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4710738921018685E-2</v>
+        <v>4.6044182885678436E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12180,14 +12180,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6729180186498676</v>
+        <v>7.7248894532109773</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9527994507298834</v>
+        <v>8.0085868843743704</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12208,14 +12208,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3642173241140654</v>
+        <v>3.3720165603997132</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3642173241140654</v>
+        <v>3.3720165603997132</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12258,21 +12258,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10548509.216733761</v>
+        <v>10622505.079652546</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3870157803323284</v>
+        <v>4.4167306167207689</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.5470388975053035</v>
+        <v>4.5789355437548451</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.8455450095897001</v>
+        <v>5.8865504387292997</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12282,14 +12282,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-919954.49751682847</v>
+        <v>-890826.6506297522</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.39655545614996485</v>
+        <v>-0.3839996105726573</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12300,17 +12300,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>1906316.1846116229</v>
+        <v>1901011.3603541956</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.50478089127274617</v>
+        <v>0.50337620618518031</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>0.50478089127274617</v>
+        <v>0.50337620618518031</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12322,23 +12322,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.888964857935358</v>
+        <v>3.9246282244727797</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4952412154551098</v>
+        <v>4.5361072123332917</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.5752527740415978</v>
+        <v>4.6172096758503294</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.6552643326280849</v>
+        <v>4.6983121393673679</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.9537704447124815</v>
+        <v>6.0059270343418225</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12377,23 +12377,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6349768478511477</v>
+        <v>1.6387672007116938</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9235021739425269</v>
+        <v>1.9279614126019928</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.9235021739425269</v>
+        <v>1.9279614126019928</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9235021739425269</v>
+        <v>1.9279614126019928</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.4728001645188393</v>
+        <v>2.4785328360178038</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12432,23 +12432,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.7619708528932527</v>
+        <v>2.7816977125922366</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.2093716946988184</v>
+        <v>3.2320343124676425</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.2493774739920624</v>
+        <v>3.2725855442261613</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.289383253285306</v>
+        <v>3.3131367759846801</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>4.2132853046156606</v>
+        <v>4.2422299351798127</v>
       </c>
       <c r="K106" s="75"/>
     </row>
